--- a/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9623949530779035</v>
+      </c>
+      <c r="D2">
+        <v>0.9871389191773786</v>
+      </c>
+      <c r="E2">
+        <v>0.9708487171418818</v>
+      </c>
+      <c r="F2">
+        <v>0.9371377607814656</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.028560096987499</v>
+      </c>
+      <c r="J2">
+        <v>0.9857617020001384</v>
+      </c>
+      <c r="K2">
+        <v>0.9987803856099046</v>
+      </c>
+      <c r="L2">
+        <v>0.9827296904465213</v>
+      </c>
+      <c r="M2">
+        <v>0.9495483670920618</v>
+      </c>
+      <c r="N2">
+        <v>0.987161596685426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9735690368568103</v>
+      </c>
+      <c r="D3">
+        <v>0.9956081823698764</v>
+      </c>
+      <c r="E3">
+        <v>0.9814265398565269</v>
+      </c>
+      <c r="F3">
+        <v>0.9515573873970832</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.031711590180051</v>
+      </c>
+      <c r="J3">
+        <v>0.9948071212292534</v>
+      </c>
+      <c r="K3">
+        <v>1.006297567472161</v>
+      </c>
+      <c r="L3">
+        <v>0.992302720286489</v>
+      </c>
+      <c r="M3">
+        <v>0.9628500666527462</v>
+      </c>
+      <c r="N3">
+        <v>0.9962198614473708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9804547458541194</v>
+      </c>
+      <c r="D4">
+        <v>1.00083003948866</v>
+      </c>
+      <c r="E4">
+        <v>0.9879515057166677</v>
+      </c>
+      <c r="F4">
+        <v>0.9604245289617955</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.033636759332028</v>
+      </c>
+      <c r="J4">
+        <v>1.000371989110495</v>
+      </c>
+      <c r="K4">
+        <v>1.01091845697783</v>
+      </c>
+      <c r="L4">
+        <v>0.9981975539736805</v>
+      </c>
+      <c r="M4">
+        <v>0.97102528865886</v>
+      </c>
+      <c r="N4">
+        <v>1.001792632079303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9832744718718188</v>
+      </c>
+      <c r="D5">
+        <v>1.002968842865321</v>
+      </c>
+      <c r="E5">
+        <v>0.9906249857213145</v>
+      </c>
+      <c r="F5">
+        <v>0.9640522380543975</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.0344209647516</v>
+      </c>
+      <c r="J5">
+        <v>1.002648588982774</v>
+      </c>
+      <c r="K5">
+        <v>1.012807863820464</v>
+      </c>
+      <c r="L5">
+        <v>1.000610413526693</v>
+      </c>
+      <c r="M5">
+        <v>0.9743687378172441</v>
+      </c>
+      <c r="N5">
+        <v>1.00407246498453</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9837437136709807</v>
+      </c>
+      <c r="D6">
+        <v>1.003324787811155</v>
+      </c>
+      <c r="E6">
+        <v>0.991069973904988</v>
+      </c>
+      <c r="F6">
+        <v>0.9646557648218036</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.03455121945857</v>
+      </c>
+      <c r="J6">
+        <v>1.003027313969587</v>
+      </c>
+      <c r="K6">
+        <v>1.013122114951696</v>
+      </c>
+      <c r="L6">
+        <v>1.00101188034571</v>
+      </c>
+      <c r="M6">
+        <v>0.974924900929664</v>
+      </c>
+      <c r="N6">
+        <v>1.004451727804265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9804927089105639</v>
+      </c>
+      <c r="D7">
+        <v>1.000858833639841</v>
+      </c>
+      <c r="E7">
+        <v>0.9879874940825375</v>
+      </c>
+      <c r="F7">
+        <v>0.9604733825606082</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.033647334060396</v>
+      </c>
+      <c r="J7">
+        <v>1.000402648798038</v>
+      </c>
+      <c r="K7">
+        <v>1.010943906351832</v>
+      </c>
+      <c r="L7">
+        <v>0.9982300436890085</v>
+      </c>
+      <c r="M7">
+        <v>0.9710703190230535</v>
+      </c>
+      <c r="N7">
+        <v>1.001823335307119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9662475443279384</v>
+      </c>
+      <c r="D8">
+        <v>0.9900581425855874</v>
+      </c>
+      <c r="E8">
+        <v>0.9744942179520055</v>
+      </c>
+      <c r="F8">
+        <v>0.9421140130593891</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.029650191207049</v>
+      </c>
+      <c r="J8">
+        <v>0.9888822899270722</v>
+      </c>
+      <c r="K8">
+        <v>1.001374488287379</v>
+      </c>
+      <c r="L8">
+        <v>0.9860311362049076</v>
+      </c>
+      <c r="M8">
+        <v>0.9541396991852821</v>
+      </c>
+      <c r="N8">
+        <v>0.9902866162051528</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9380922138036296</v>
+      </c>
+      <c r="D9">
+        <v>0.9687511357461033</v>
+      </c>
+      <c r="E9">
+        <v>0.9478889343414298</v>
+      </c>
+      <c r="F9">
+        <v>0.9056054244291714</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.021613578783905</v>
+      </c>
+      <c r="J9">
+        <v>0.9660378654450537</v>
+      </c>
+      <c r="K9">
+        <v>0.9823724021532267</v>
+      </c>
+      <c r="L9">
+        <v>0.9618881230235281</v>
+      </c>
+      <c r="M9">
+        <v>0.9204412732605989</v>
+      </c>
+      <c r="N9">
+        <v>0.9674097500200772</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9165163589176083</v>
+      </c>
+      <c r="D10">
+        <v>0.952479605706135</v>
+      </c>
+      <c r="E10">
+        <v>0.9275585092578457</v>
+      </c>
+      <c r="F10">
+        <v>0.8773465309360209</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.015371290117787</v>
+      </c>
+      <c r="J10">
+        <v>0.9484839895744062</v>
+      </c>
+      <c r="K10">
+        <v>0.9677633470645125</v>
+      </c>
+      <c r="L10">
+        <v>0.943371675042604</v>
+      </c>
+      <c r="M10">
+        <v>0.89435015266858</v>
+      </c>
+      <c r="N10">
+        <v>0.9498309456322359</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9062634656772939</v>
+      </c>
+      <c r="D11">
+        <v>0.9447694543463403</v>
+      </c>
+      <c r="E11">
+        <v>0.9179151584768831</v>
+      </c>
+      <c r="F11">
+        <v>0.8638062223176176</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.012388261914358</v>
+      </c>
+      <c r="J11">
+        <v>0.9401319414722064</v>
+      </c>
+      <c r="K11">
+        <v>0.9608139250100063</v>
+      </c>
+      <c r="L11">
+        <v>0.9345709505643862</v>
+      </c>
+      <c r="M11">
+        <v>0.8818518176223876</v>
+      </c>
+      <c r="N11">
+        <v>0.9414670366637379</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9022885555998511</v>
+      </c>
+      <c r="D12">
+        <v>0.9417846308982512</v>
+      </c>
+      <c r="E12">
+        <v>0.914179657570227</v>
+      </c>
+      <c r="F12">
+        <v>0.8585344695875704</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.011229646334957</v>
+      </c>
+      <c r="J12">
+        <v>0.9368924914737282</v>
+      </c>
+      <c r="K12">
+        <v>0.9581191124243379</v>
+      </c>
+      <c r="L12">
+        <v>0.9311589820402667</v>
+      </c>
+      <c r="M12">
+        <v>0.8769868814528727</v>
+      </c>
+      <c r="N12">
+        <v>0.9382229862746916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9031493146913244</v>
+      </c>
+      <c r="D13">
+        <v>0.9424307769595863</v>
+      </c>
+      <c r="E13">
+        <v>0.914988425703559</v>
+      </c>
+      <c r="F13">
+        <v>0.859677174601201</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.011480631336688</v>
+      </c>
+      <c r="J13">
+        <v>0.937594052859861</v>
+      </c>
+      <c r="K13">
+        <v>0.9587026878791896</v>
+      </c>
+      <c r="L13">
+        <v>0.9318978355977923</v>
+      </c>
+      <c r="M13">
+        <v>0.8780413408675837</v>
+      </c>
+      <c r="N13">
+        <v>0.9389255439584632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9059385045431085</v>
+      </c>
+      <c r="D14">
+        <v>0.9445253428949796</v>
+      </c>
+      <c r="E14">
+        <v>0.9176097046234347</v>
+      </c>
+      <c r="F14">
+        <v>0.8633757291757707</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.012293582015735</v>
+      </c>
+      <c r="J14">
+        <v>0.9398671355570197</v>
+      </c>
+      <c r="K14">
+        <v>0.9605936251015124</v>
+      </c>
+      <c r="L14">
+        <v>0.9342920112458868</v>
+      </c>
+      <c r="M14">
+        <v>0.8814545178895993</v>
+      </c>
+      <c r="N14">
+        <v>0.9412018546937779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9076338863075974</v>
+      </c>
+      <c r="D15">
+        <v>0.9457990964055633</v>
+      </c>
+      <c r="E15">
+        <v>0.9192034407726095</v>
+      </c>
+      <c r="F15">
+        <v>0.8656207533600915</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.012787460922177</v>
+      </c>
+      <c r="J15">
+        <v>0.9412486178401887</v>
+      </c>
+      <c r="K15">
+        <v>0.9617429483823403</v>
+      </c>
+      <c r="L15">
+        <v>0.9357472882601733</v>
+      </c>
+      <c r="M15">
+        <v>0.8835264883111148</v>
+      </c>
+      <c r="N15">
+        <v>0.9425852988402471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9171753075116649</v>
+      </c>
+      <c r="D16">
+        <v>0.9529756561196701</v>
+      </c>
+      <c r="E16">
+        <v>0.9281786751020465</v>
+      </c>
+      <c r="F16">
+        <v>0.8782140842300249</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.015562698750352</v>
+      </c>
+      <c r="J16">
+        <v>0.949020568569419</v>
+      </c>
+      <c r="K16">
+        <v>0.9682098736853164</v>
+      </c>
+      <c r="L16">
+        <v>0.9439372758386034</v>
+      </c>
+      <c r="M16">
+        <v>0.8951510586152202</v>
+      </c>
+      <c r="N16">
+        <v>0.9503682866309683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9228985196662866</v>
+      </c>
+      <c r="D17">
+        <v>0.9572865524578573</v>
+      </c>
+      <c r="E17">
+        <v>0.9335670287807133</v>
+      </c>
+      <c r="F17">
+        <v>0.8857364134140608</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.017223357059389</v>
+      </c>
+      <c r="J17">
+        <v>0.9536798242164948</v>
+      </c>
+      <c r="K17">
+        <v>0.9720873786774253</v>
+      </c>
+      <c r="L17">
+        <v>0.9488495653799039</v>
+      </c>
+      <c r="M17">
+        <v>0.9020959146389417</v>
+      </c>
+      <c r="N17">
+        <v>0.9550341589554869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9261513555852986</v>
+      </c>
+      <c r="D18">
+        <v>0.9597386307349367</v>
+      </c>
+      <c r="E18">
+        <v>0.9366311272925386</v>
+      </c>
+      <c r="F18">
+        <v>0.8900020476167378</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.018165659983091</v>
+      </c>
+      <c r="J18">
+        <v>0.956326997421401</v>
+      </c>
+      <c r="K18">
+        <v>0.9742905051497383</v>
+      </c>
+      <c r="L18">
+        <v>0.9516413403172153</v>
+      </c>
+      <c r="M18">
+        <v>0.9060343337674328</v>
+      </c>
+      <c r="N18">
+        <v>0.9576850914499793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9272467532632276</v>
+      </c>
+      <c r="D19">
+        <v>0.960564677612177</v>
+      </c>
+      <c r="E19">
+        <v>0.9376632248533628</v>
+      </c>
+      <c r="F19">
+        <v>0.8914369838305808</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.018482710393156</v>
+      </c>
+      <c r="J19">
+        <v>0.9572182727308592</v>
+      </c>
+      <c r="K19">
+        <v>0.9750322834710846</v>
+      </c>
+      <c r="L19">
+        <v>0.9525814414017197</v>
+      </c>
+      <c r="M19">
+        <v>0.907359223873502</v>
+      </c>
+      <c r="N19">
+        <v>0.9585776324726076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9222934925863358</v>
+      </c>
+      <c r="D20">
+        <v>0.9568306187586839</v>
+      </c>
+      <c r="E20">
+        <v>0.9329972331674553</v>
+      </c>
+      <c r="F20">
+        <v>0.8849422437416814</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.017047960466643</v>
+      </c>
+      <c r="J20">
+        <v>0.953187371896646</v>
+      </c>
+      <c r="K20">
+        <v>0.9716775386158801</v>
+      </c>
+      <c r="L20">
+        <v>0.9483302807157267</v>
+      </c>
+      <c r="M20">
+        <v>0.9013626819823272</v>
+      </c>
+      <c r="N20">
+        <v>0.9545410072968589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9051220453342627</v>
+      </c>
+      <c r="D21">
+        <v>0.9439120895636639</v>
+      </c>
+      <c r="E21">
+        <v>0.9168423082720112</v>
+      </c>
+      <c r="F21">
+        <v>0.8622937428487717</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.012055667722368</v>
+      </c>
+      <c r="J21">
+        <v>0.9392017920766504</v>
+      </c>
+      <c r="K21">
+        <v>0.960040117357613</v>
+      </c>
+      <c r="L21">
+        <v>0.9335911810887857</v>
+      </c>
+      <c r="M21">
+        <v>0.8804559794675999</v>
+      </c>
+      <c r="N21">
+        <v>0.9405355663493504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.893338791984952</v>
+      </c>
+      <c r="D22">
+        <v>0.935073488924447</v>
+      </c>
+      <c r="E22">
+        <v>0.9057753156648871</v>
+      </c>
+      <c r="F22">
+        <v>0.8466146426558776</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.008617470703084</v>
+      </c>
+      <c r="J22">
+        <v>0.9295960113082359</v>
+      </c>
+      <c r="K22">
+        <v>0.9520510516060894</v>
+      </c>
+      <c r="L22">
+        <v>0.923476895129366</v>
+      </c>
+      <c r="M22">
+        <v>0.8659899989044925</v>
+      </c>
+      <c r="N22">
+        <v>0.9309161442704461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8996917891404205</v>
+      </c>
+      <c r="D23">
+        <v>0.9398360379067984</v>
+      </c>
+      <c r="E23">
+        <v>0.9117402336539789</v>
+      </c>
+      <c r="F23">
+        <v>0.8550832787295004</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.010472187457948</v>
+      </c>
+      <c r="J23">
+        <v>0.9347757886658018</v>
+      </c>
+      <c r="K23">
+        <v>0.9563585150125444</v>
+      </c>
+      <c r="L23">
+        <v>0.9289299954352808</v>
+      </c>
+      <c r="M23">
+        <v>0.8738024411634109</v>
+      </c>
+      <c r="N23">
+        <v>0.936103277505989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9225671401174378</v>
+      </c>
+      <c r="D24">
+        <v>0.9570368268807435</v>
+      </c>
+      <c r="E24">
+        <v>0.9332549409560432</v>
+      </c>
+      <c r="F24">
+        <v>0.8853014685892141</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.017127295398926</v>
+      </c>
+      <c r="J24">
+        <v>0.9534101060075526</v>
+      </c>
+      <c r="K24">
+        <v>0.9718629072399347</v>
+      </c>
+      <c r="L24">
+        <v>0.9485651483671985</v>
+      </c>
+      <c r="M24">
+        <v>0.9016943426027338</v>
+      </c>
+      <c r="N24">
+        <v>0.9547640577157508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9457993835771473</v>
+      </c>
+      <c r="D25">
+        <v>0.9745766387415969</v>
+      </c>
+      <c r="E25">
+        <v>0.9551633664697452</v>
+      </c>
+      <c r="F25">
+        <v>0.9156348445116657</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.023828115979228</v>
+      </c>
+      <c r="J25">
+        <v>0.9722993967150991</v>
+      </c>
+      <c r="K25">
+        <v>0.9875828718951003</v>
+      </c>
+      <c r="L25">
+        <v>0.9685000196005954</v>
+      </c>
+      <c r="M25">
+        <v>0.9297011001957824</v>
+      </c>
+      <c r="N25">
+        <v>0.9736801733827342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9623949530779035</v>
+        <v>1.025137344623933</v>
       </c>
       <c r="D2">
-        <v>0.9871389191773786</v>
+        <v>1.040773239182454</v>
       </c>
       <c r="E2">
-        <v>0.9708487171418818</v>
+        <v>1.042360113929291</v>
       </c>
       <c r="F2">
-        <v>0.9371377607814656</v>
+        <v>1.048131816617313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028560096987499</v>
+        <v>1.053405311941205</v>
       </c>
       <c r="J2">
-        <v>0.9857617020001384</v>
+        <v>1.046591344124254</v>
       </c>
       <c r="K2">
-        <v>0.9987803856099046</v>
+        <v>1.051692325044049</v>
       </c>
       <c r="L2">
-        <v>0.9827296904465213</v>
+        <v>1.053259239665018</v>
       </c>
       <c r="M2">
-        <v>0.9495483670920618</v>
+        <v>1.058958979080197</v>
       </c>
       <c r="N2">
-        <v>0.987161596685426</v>
+        <v>1.048077623878615</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9735690368568103</v>
+        <v>1.029397492377248</v>
       </c>
       <c r="D3">
-        <v>0.9956081823698764</v>
+        <v>1.04397407548038</v>
       </c>
       <c r="E3">
-        <v>0.9814265398565269</v>
+        <v>1.046179428079113</v>
       </c>
       <c r="F3">
-        <v>0.9515573873970832</v>
+        <v>1.052009867846541</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031711590180051</v>
+        <v>1.054650174198169</v>
       </c>
       <c r="J3">
-        <v>0.9948071212292534</v>
+        <v>1.049117616254241</v>
       </c>
       <c r="K3">
-        <v>1.006297567472161</v>
+        <v>1.054073596176347</v>
       </c>
       <c r="L3">
-        <v>0.992302720286489</v>
+        <v>1.056253658082532</v>
       </c>
       <c r="M3">
-        <v>0.9628500666527462</v>
+        <v>1.062017864537149</v>
       </c>
       <c r="N3">
-        <v>0.9962198614473708</v>
+        <v>1.050607483604795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9804547458541194</v>
+        <v>1.032102669683265</v>
       </c>
       <c r="D4">
-        <v>1.00083003948866</v>
+        <v>1.046009680934313</v>
       </c>
       <c r="E4">
-        <v>0.9879515057166677</v>
+        <v>1.048609957951986</v>
       </c>
       <c r="F4">
-        <v>0.9604245289617955</v>
+        <v>1.054477983630301</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033636759332028</v>
+        <v>1.055432575519197</v>
       </c>
       <c r="J4">
-        <v>1.000371989110495</v>
+        <v>1.050719368693921</v>
       </c>
       <c r="K4">
-        <v>1.01091845697783</v>
+        <v>1.055582797345602</v>
       </c>
       <c r="L4">
-        <v>0.9981975539736805</v>
+        <v>1.058155073680999</v>
       </c>
       <c r="M4">
-        <v>0.97102528865886</v>
+        <v>1.063960531406663</v>
       </c>
       <c r="N4">
-        <v>1.001792632079303</v>
+        <v>1.052211510716662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9832744718718188</v>
+        <v>1.033228020159474</v>
       </c>
       <c r="D5">
-        <v>1.002968842865321</v>
+        <v>1.046857188204058</v>
       </c>
       <c r="E5">
-        <v>0.9906249857213145</v>
+        <v>1.04962229036496</v>
       </c>
       <c r="F5">
-        <v>0.9640522380543975</v>
+        <v>1.055506019003896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0344209647516</v>
+        <v>1.055756083537106</v>
       </c>
       <c r="J5">
-        <v>1.002648588982774</v>
+        <v>1.051385085925646</v>
       </c>
       <c r="K5">
-        <v>1.012807863820464</v>
+        <v>1.056209893997415</v>
       </c>
       <c r="L5">
-        <v>1.000610413526693</v>
+        <v>1.058946021652633</v>
       </c>
       <c r="M5">
-        <v>0.9743687378172441</v>
+        <v>1.064768713158497</v>
       </c>
       <c r="N5">
-        <v>1.00407246498453</v>
+        <v>1.052878173343216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9837437136709807</v>
+        <v>1.033416284709489</v>
       </c>
       <c r="D6">
-        <v>1.003324787811155</v>
+        <v>1.046999011012523</v>
       </c>
       <c r="E6">
-        <v>0.991069973904988</v>
+        <v>1.049791719334636</v>
       </c>
       <c r="F6">
-        <v>0.9646557648218036</v>
+        <v>1.055678078888492</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03455121945857</v>
+        <v>1.055810087853693</v>
       </c>
       <c r="J6">
-        <v>1.003027313969587</v>
+        <v>1.051496419846342</v>
       </c>
       <c r="K6">
-        <v>1.013122114951696</v>
+        <v>1.056314759759039</v>
       </c>
       <c r="L6">
-        <v>1.00101188034571</v>
+        <v>1.059078339444252</v>
       </c>
       <c r="M6">
-        <v>0.974924900929664</v>
+        <v>1.064903918305049</v>
       </c>
       <c r="N6">
-        <v>1.004451727804265</v>
+        <v>1.052989665370849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9804927089105639</v>
+        <v>1.032117752930721</v>
       </c>
       <c r="D7">
-        <v>1.000858833639841</v>
+        <v>1.046021037505756</v>
       </c>
       <c r="E7">
-        <v>0.9879874940825375</v>
+        <v>1.048623521565586</v>
       </c>
       <c r="F7">
-        <v>0.9604733825606082</v>
+        <v>1.054491757449887</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033647334060396</v>
+        <v>1.05543691936687</v>
       </c>
       <c r="J7">
-        <v>1.000402648798038</v>
+        <v>1.050728293851419</v>
       </c>
       <c r="K7">
-        <v>1.010943906351832</v>
+        <v>1.055591205343438</v>
       </c>
       <c r="L7">
-        <v>0.9982300436890085</v>
+        <v>1.058165675073364</v>
       </c>
       <c r="M7">
-        <v>0.9710703190230535</v>
+        <v>1.063971363499536</v>
       </c>
       <c r="N7">
-        <v>1.001823335307119</v>
+        <v>1.052220448548908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9662475443279384</v>
+        <v>1.026587978591216</v>
       </c>
       <c r="D8">
-        <v>0.9900581425855874</v>
+        <v>1.0418624912122</v>
       </c>
       <c r="E8">
-        <v>0.9744942179520055</v>
+        <v>1.043659512698649</v>
       </c>
       <c r="F8">
-        <v>0.9421140130593891</v>
+        <v>1.049451154601921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029650191207049</v>
+        <v>1.053830876720723</v>
       </c>
       <c r="J8">
-        <v>0.9888822899270722</v>
+        <v>1.047452060608258</v>
       </c>
       <c r="K8">
-        <v>1.001374488287379</v>
+        <v>1.05250376343966</v>
       </c>
       <c r="L8">
-        <v>0.9860311362049076</v>
+        <v>1.054278863125515</v>
       </c>
       <c r="M8">
-        <v>0.9541396991852821</v>
+        <v>1.060000487002558</v>
       </c>
       <c r="N8">
-        <v>0.9902866162051528</v>
+        <v>1.048939562678753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9380922138036296</v>
+        <v>1.016430830902921</v>
       </c>
       <c r="D9">
-        <v>0.9687511357461033</v>
+        <v>1.034250572291578</v>
       </c>
       <c r="E9">
-        <v>0.9478889343414298</v>
+        <v>1.034585005281087</v>
       </c>
       <c r="F9">
-        <v>0.9056054244291714</v>
+        <v>1.040238334905572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021613578783905</v>
+        <v>1.050818237053302</v>
       </c>
       <c r="J9">
-        <v>0.9660378654450537</v>
+        <v>1.041416423921245</v>
       </c>
       <c r="K9">
-        <v>0.9823724021532267</v>
+        <v>1.046811366709882</v>
       </c>
       <c r="L9">
-        <v>0.9618881230235281</v>
+        <v>1.047140823279339</v>
       </c>
       <c r="M9">
-        <v>0.9204412732605989</v>
+        <v>1.052710645128081</v>
       </c>
       <c r="N9">
-        <v>0.9674097500200772</v>
+        <v>1.042895354695347</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9165163589176083</v>
+        <v>1.009353440578638</v>
       </c>
       <c r="D10">
-        <v>0.952479605706135</v>
+        <v>1.028967662201185</v>
       </c>
       <c r="E10">
-        <v>0.9275585092578457</v>
+        <v>1.028293696526337</v>
       </c>
       <c r="F10">
-        <v>0.8773465309360209</v>
+        <v>1.033852397221458</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015371290117787</v>
+        <v>1.048678754810008</v>
       </c>
       <c r="J10">
-        <v>0.9484839895744062</v>
+        <v>1.037200808235017</v>
       </c>
       <c r="K10">
-        <v>0.9677633470645125</v>
+        <v>1.042832878629685</v>
       </c>
       <c r="L10">
-        <v>0.943371675042604</v>
+        <v>1.042170223923932</v>
       </c>
       <c r="M10">
-        <v>0.89435015266858</v>
+        <v>1.047636201985858</v>
       </c>
       <c r="N10">
-        <v>0.9498309456322359</v>
+        <v>1.038673752351306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9062634656772939</v>
+        <v>1.006209492796244</v>
       </c>
       <c r="D11">
-        <v>0.9447694543463403</v>
+        <v>1.026626557535064</v>
       </c>
       <c r="E11">
-        <v>0.9179151584768831</v>
+        <v>1.025507017555169</v>
       </c>
       <c r="F11">
-        <v>0.8638062223176176</v>
+        <v>1.031024129029779</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012388261914358</v>
+        <v>1.047719261028484</v>
       </c>
       <c r="J11">
-        <v>0.9401319414722064</v>
+        <v>1.035326211907039</v>
       </c>
       <c r="K11">
-        <v>0.9608139250100063</v>
+        <v>1.041063218592786</v>
       </c>
       <c r="L11">
-        <v>0.9345709505643862</v>
+        <v>1.039963423566199</v>
       </c>
       <c r="M11">
-        <v>0.8818518176223876</v>
+        <v>1.045383768929038</v>
       </c>
       <c r="N11">
-        <v>0.9414670366637379</v>
+        <v>1.036796493881524</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9022885555998511</v>
+        <v>1.005029142612371</v>
       </c>
       <c r="D12">
-        <v>0.9417846308982512</v>
+        <v>1.025748541827542</v>
       </c>
       <c r="E12">
-        <v>0.914179657570227</v>
+        <v>1.024462060995019</v>
       </c>
       <c r="F12">
-        <v>0.8585344695875704</v>
+        <v>1.029963628595394</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011229646334957</v>
+        <v>1.047357710113699</v>
       </c>
       <c r="J12">
-        <v>0.9368924914737282</v>
+        <v>1.034622174681952</v>
       </c>
       <c r="K12">
-        <v>0.9581191124243379</v>
+        <v>1.040398525134986</v>
       </c>
       <c r="L12">
-        <v>0.9311589820402667</v>
+        <v>1.0391351477657</v>
       </c>
       <c r="M12">
-        <v>0.8769868814528727</v>
+        <v>1.044538439227755</v>
       </c>
       <c r="N12">
-        <v>0.9382229862746916</v>
+        <v>1.036091456842822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9031493146913244</v>
+        <v>1.005282909956133</v>
       </c>
       <c r="D13">
-        <v>0.9424307769595863</v>
+        <v>1.025937266740044</v>
       </c>
       <c r="E13">
-        <v>0.914988425703559</v>
+        <v>1.024686661768339</v>
       </c>
       <c r="F13">
-        <v>0.859677174601201</v>
+        <v>1.030191567974501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011480631336688</v>
+        <v>1.047435500203468</v>
       </c>
       <c r="J13">
-        <v>0.937594052859861</v>
+        <v>1.034773548420144</v>
       </c>
       <c r="K13">
-        <v>0.9587026878791896</v>
+        <v>1.040541442505914</v>
       </c>
       <c r="L13">
-        <v>0.9318978355977923</v>
+        <v>1.039313210063031</v>
       </c>
       <c r="M13">
-        <v>0.8780413408675837</v>
+        <v>1.044720164404543</v>
       </c>
       <c r="N13">
-        <v>0.9389255439584632</v>
+        <v>1.036243045549086</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9059385045431085</v>
+        <v>1.006112184384402</v>
       </c>
       <c r="D14">
-        <v>0.9445253428949796</v>
+        <v>1.026554154614307</v>
       </c>
       <c r="E14">
-        <v>0.9176097046234347</v>
+        <v>1.025420845077425</v>
       </c>
       <c r="F14">
-        <v>0.8633757291757707</v>
+        <v>1.030936673665178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012293582015735</v>
+        <v>1.047689481311224</v>
       </c>
       <c r="J14">
-        <v>0.9398671355570197</v>
+        <v>1.035268175649144</v>
       </c>
       <c r="K14">
-        <v>0.9605936251015124</v>
+        <v>1.041008426882396</v>
       </c>
       <c r="L14">
-        <v>0.9342920112458868</v>
+        <v>1.039895135199067</v>
       </c>
       <c r="M14">
-        <v>0.8814545178895993</v>
+        <v>1.045314073021481</v>
       </c>
       <c r="N14">
-        <v>0.9412018546937779</v>
+        <v>1.036738375205486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9076338863075974</v>
+        <v>1.006621445772968</v>
       </c>
       <c r="D15">
-        <v>0.9457990964055633</v>
+        <v>1.026933111513845</v>
       </c>
       <c r="E15">
-        <v>0.9192034407726095</v>
+        <v>1.025871878572594</v>
       </c>
       <c r="F15">
-        <v>0.8656207533600915</v>
+        <v>1.031394424000982</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012787460922177</v>
+        <v>1.047845279110626</v>
       </c>
       <c r="J15">
-        <v>0.9412486178401887</v>
+        <v>1.035571897284991</v>
       </c>
       <c r="K15">
-        <v>0.9617429483823403</v>
+        <v>1.041295166132014</v>
       </c>
       <c r="L15">
-        <v>0.9357472882601733</v>
+        <v>1.040252530732449</v>
       </c>
       <c r="M15">
-        <v>0.8835264883111148</v>
+        <v>1.045678838098149</v>
       </c>
       <c r="N15">
-        <v>0.9425852988402471</v>
+        <v>1.037042528160892</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9171753075116649</v>
+        <v>1.009560369299589</v>
       </c>
       <c r="D16">
-        <v>0.9529756561196701</v>
+        <v>1.029121873293704</v>
       </c>
       <c r="E16">
-        <v>0.9281786751020465</v>
+        <v>1.028477282952066</v>
       </c>
       <c r="F16">
-        <v>0.8782140842300249</v>
+        <v>1.03403873054879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015562698750352</v>
+        <v>1.048741720957203</v>
       </c>
       <c r="J16">
-        <v>0.949020568569419</v>
+        <v>1.037324154085726</v>
       </c>
       <c r="K16">
-        <v>0.9682098736853164</v>
+        <v>1.042949310004897</v>
       </c>
       <c r="L16">
-        <v>0.9439372758386034</v>
+        <v>1.042315501526388</v>
       </c>
       <c r="M16">
-        <v>0.8951510586152202</v>
+        <v>1.047784493711089</v>
       </c>
       <c r="N16">
-        <v>0.9503682866309683</v>
+        <v>1.038797273367271</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228985196662866</v>
+        <v>1.011382197398938</v>
       </c>
       <c r="D17">
-        <v>0.9572865524578573</v>
+        <v>1.030480224517925</v>
       </c>
       <c r="E17">
-        <v>0.9335670287807133</v>
+        <v>1.03009452819325</v>
       </c>
       <c r="F17">
-        <v>0.8857364134140608</v>
+        <v>1.035680211200912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017223357059389</v>
+        <v>1.049295052961018</v>
       </c>
       <c r="J17">
-        <v>0.9536798242164948</v>
+        <v>1.038409893705666</v>
       </c>
       <c r="K17">
-        <v>0.9720873786774253</v>
+        <v>1.04397412875399</v>
       </c>
       <c r="L17">
-        <v>0.9488495653799039</v>
+        <v>1.043594694022349</v>
       </c>
       <c r="M17">
-        <v>0.9020959146389417</v>
+        <v>1.049090280030311</v>
       </c>
       <c r="N17">
-        <v>0.9550341589554869</v>
+        <v>1.039884554862008</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9261513555852986</v>
+        <v>1.012437222750219</v>
       </c>
       <c r="D18">
-        <v>0.9597386307349367</v>
+        <v>1.031267385729912</v>
       </c>
       <c r="E18">
-        <v>0.9366311272925386</v>
+        <v>1.031031842767663</v>
       </c>
       <c r="F18">
-        <v>0.8900020476167378</v>
+        <v>1.036631602854515</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018165659983091</v>
+        <v>1.049614622901872</v>
       </c>
       <c r="J18">
-        <v>0.956326997421401</v>
+        <v>1.039038463260223</v>
       </c>
       <c r="K18">
-        <v>0.9742905051497383</v>
+        <v>1.044567380227605</v>
       </c>
       <c r="L18">
-        <v>0.9516413403172153</v>
+        <v>1.044335594253083</v>
       </c>
       <c r="M18">
-        <v>0.9060343337674328</v>
+        <v>1.049846627817248</v>
       </c>
       <c r="N18">
-        <v>0.9576850914499793</v>
+        <v>1.04051401705743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9272467532632276</v>
+        <v>1.012795685496301</v>
       </c>
       <c r="D19">
-        <v>0.960564677612177</v>
+        <v>1.031534926252986</v>
       </c>
       <c r="E19">
-        <v>0.9376632248533628</v>
+        <v>1.031350439387654</v>
       </c>
       <c r="F19">
-        <v>0.8914369838305808</v>
+        <v>1.036954989487223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018482710393156</v>
+        <v>1.049723054071159</v>
       </c>
       <c r="J19">
-        <v>0.9572182727308592</v>
+        <v>1.039251997824737</v>
       </c>
       <c r="K19">
-        <v>0.9750322834710846</v>
+        <v>1.044768908107778</v>
       </c>
       <c r="L19">
-        <v>0.9525814414017197</v>
+        <v>1.044587346080826</v>
       </c>
       <c r="M19">
-        <v>0.907359223873502</v>
+        <v>1.050103636084475</v>
       </c>
       <c r="N19">
-        <v>0.9585776324726076</v>
+        <v>1.040727854865518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9222934925863358</v>
+        <v>1.011187524618488</v>
       </c>
       <c r="D20">
-        <v>0.9568306187586839</v>
+        <v>1.030335020808276</v>
       </c>
       <c r="E20">
-        <v>0.9329972331674553</v>
+        <v>1.029921636709539</v>
       </c>
       <c r="F20">
-        <v>0.8849422437416814</v>
+        <v>1.035504725617233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017047960466643</v>
+        <v>1.04923601579672</v>
       </c>
       <c r="J20">
-        <v>0.953187371896646</v>
+        <v>1.038293895106623</v>
       </c>
       <c r="K20">
-        <v>0.9716775386158801</v>
+        <v>1.043864643857152</v>
       </c>
       <c r="L20">
-        <v>0.9483302807157267</v>
+        <v>1.043457992553741</v>
       </c>
       <c r="M20">
-        <v>0.9013626819823272</v>
+        <v>1.048950731959118</v>
       </c>
       <c r="N20">
-        <v>0.9545410072968589</v>
+        <v>1.039768391531649</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9051220453342627</v>
+        <v>1.005868335302615</v>
       </c>
       <c r="D21">
-        <v>0.9439120895636639</v>
+        <v>1.026372732229816</v>
       </c>
       <c r="E21">
-        <v>0.9168423082720112</v>
+        <v>1.025204922492136</v>
       </c>
       <c r="F21">
-        <v>0.8622937428487717</v>
+        <v>1.03071753738359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012055667722368</v>
+        <v>1.047614833947892</v>
       </c>
       <c r="J21">
-        <v>0.9392017920766504</v>
+        <v>1.03512273641084</v>
       </c>
       <c r="K21">
-        <v>0.960040117357613</v>
+        <v>1.040871117457105</v>
       </c>
       <c r="L21">
-        <v>0.9335911810887857</v>
+        <v>1.039724012581423</v>
       </c>
       <c r="M21">
-        <v>0.8804559794675999</v>
+        <v>1.04513942446448</v>
       </c>
       <c r="N21">
-        <v>0.9405355663493504</v>
+        <v>1.03659272942678</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.893338791984952</v>
+        <v>1.002451014323262</v>
       </c>
       <c r="D22">
-        <v>0.935073488924447</v>
+        <v>1.023832534946531</v>
       </c>
       <c r="E22">
-        <v>0.9057753156648871</v>
+        <v>1.022182036629724</v>
       </c>
       <c r="F22">
-        <v>0.8466146426558776</v>
+        <v>1.027649785705684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008617470703084</v>
+        <v>1.046565625116492</v>
       </c>
       <c r="J22">
-        <v>0.9295960113082359</v>
+        <v>1.033084005445914</v>
       </c>
       <c r="K22">
-        <v>0.9520510516060894</v>
+        <v>1.038946201551239</v>
       </c>
       <c r="L22">
-        <v>0.923476895129366</v>
+        <v>1.037326509024832</v>
       </c>
       <c r="M22">
-        <v>0.8659899989044925</v>
+        <v>1.04269269911856</v>
       </c>
       <c r="N22">
-        <v>0.9309161442704461</v>
+        <v>1.034551103230039</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8996917891404205</v>
+        <v>1.004269731976087</v>
       </c>
       <c r="D23">
-        <v>0.9398360379067984</v>
+        <v>1.025183913328528</v>
       </c>
       <c r="E23">
-        <v>0.9117402336539789</v>
+        <v>1.023790121560341</v>
       </c>
       <c r="F23">
-        <v>0.8550832787295004</v>
+        <v>1.029281708755143</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010472187457948</v>
+        <v>1.047124729139182</v>
       </c>
       <c r="J23">
-        <v>0.9347757886658018</v>
+        <v>1.034169148789442</v>
       </c>
       <c r="K23">
-        <v>0.9563585150125444</v>
+        <v>1.039970798116419</v>
       </c>
       <c r="L23">
-        <v>0.9289299954352808</v>
+        <v>1.038602326259932</v>
       </c>
       <c r="M23">
-        <v>0.8738024411634109</v>
+        <v>1.043994668131409</v>
       </c>
       <c r="N23">
-        <v>0.936103277505989</v>
+        <v>1.035637787601582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9225671401174378</v>
+        <v>1.011275512359647</v>
       </c>
       <c r="D24">
-        <v>0.9570368268807435</v>
+        <v>1.030400647978031</v>
       </c>
       <c r="E24">
-        <v>0.9332549409560432</v>
+        <v>1.029999777428472</v>
       </c>
       <c r="F24">
-        <v>0.8853014685892141</v>
+        <v>1.035584038680453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017127295398926</v>
+        <v>1.049262701961732</v>
       </c>
       <c r="J24">
-        <v>0.9534101060075526</v>
+        <v>1.038346324454785</v>
       </c>
       <c r="K24">
-        <v>0.9718629072399347</v>
+        <v>1.043914129277999</v>
       </c>
       <c r="L24">
-        <v>0.9485651483671985</v>
+        <v>1.043519778201224</v>
       </c>
       <c r="M24">
-        <v>0.9016943426027338</v>
+        <v>1.049013804061848</v>
       </c>
       <c r="N24">
-        <v>0.9547640577157508</v>
+        <v>1.039820895335499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9457993835771473</v>
+        <v>1.019108447694718</v>
       </c>
       <c r="D25">
-        <v>0.9745766387415969</v>
+        <v>1.036253819411554</v>
       </c>
       <c r="E25">
-        <v>0.9551633664697452</v>
+        <v>1.036971916006933</v>
       </c>
       <c r="F25">
-        <v>0.9156348445116657</v>
+        <v>1.042661416354501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.023828115979228</v>
+        <v>1.051619538237289</v>
       </c>
       <c r="J25">
-        <v>0.9722993967150991</v>
+        <v>1.043009415637437</v>
       </c>
       <c r="K25">
-        <v>0.9875828718951003</v>
+        <v>1.048314251880335</v>
       </c>
       <c r="L25">
-        <v>0.9685000196005954</v>
+        <v>1.049022174735793</v>
       </c>
       <c r="M25">
-        <v>0.9297011001957824</v>
+        <v>1.054631693580111</v>
       </c>
       <c r="N25">
-        <v>0.9736801733827342</v>
+        <v>1.044490608642494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.025137344623933</v>
+        <v>1.0516334435754</v>
       </c>
       <c r="D2">
-        <v>1.040773239182454</v>
+        <v>1.056359688791404</v>
       </c>
       <c r="E2">
-        <v>1.042360113929291</v>
+        <v>1.064506053812791</v>
       </c>
       <c r="F2">
-        <v>1.048131816617313</v>
+        <v>1.070263906301469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053405311941205</v>
+        <v>1.045761696423113</v>
       </c>
       <c r="J2">
-        <v>1.046591344124254</v>
+        <v>1.05666028622786</v>
       </c>
       <c r="K2">
-        <v>1.051692325044049</v>
+        <v>1.059097615050719</v>
       </c>
       <c r="L2">
-        <v>1.053259239665018</v>
+        <v>1.067221807516844</v>
       </c>
       <c r="M2">
-        <v>1.058958979080197</v>
+        <v>1.072964208639068</v>
       </c>
       <c r="N2">
-        <v>1.048077623878615</v>
+        <v>1.058160865034933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029397492377248</v>
+        <v>1.052547439563288</v>
       </c>
       <c r="D3">
-        <v>1.04397407548038</v>
+        <v>1.057070996826647</v>
       </c>
       <c r="E3">
-        <v>1.046179428079113</v>
+        <v>1.065379058889307</v>
       </c>
       <c r="F3">
-        <v>1.052009867846541</v>
+        <v>1.071152103033569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054650174198169</v>
+        <v>1.045981689177238</v>
       </c>
       <c r="J3">
-        <v>1.049117616254241</v>
+        <v>1.057224616786036</v>
       </c>
       <c r="K3">
-        <v>1.054073596176347</v>
+        <v>1.059622807162075</v>
       </c>
       <c r="L3">
-        <v>1.056253658082532</v>
+        <v>1.067909886069966</v>
       </c>
       <c r="M3">
-        <v>1.062017864537149</v>
+        <v>1.073668555944095</v>
       </c>
       <c r="N3">
-        <v>1.050607483604795</v>
+        <v>1.058725997007231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032102669683265</v>
+        <v>1.053139521911875</v>
       </c>
       <c r="D4">
-        <v>1.046009680934313</v>
+        <v>1.057531831537789</v>
       </c>
       <c r="E4">
-        <v>1.048609957951986</v>
+        <v>1.065944952713894</v>
       </c>
       <c r="F4">
-        <v>1.054477983630301</v>
+        <v>1.071727860446451</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055432575519197</v>
+        <v>1.046123177485899</v>
       </c>
       <c r="J4">
-        <v>1.050719368693921</v>
+        <v>1.057589781268904</v>
       </c>
       <c r="K4">
-        <v>1.055582797345602</v>
+        <v>1.059962536819187</v>
       </c>
       <c r="L4">
-        <v>1.058155073680999</v>
+        <v>1.068355476031912</v>
       </c>
       <c r="M4">
-        <v>1.063960531406663</v>
+        <v>1.074124708551529</v>
       </c>
       <c r="N4">
-        <v>1.052211510716662</v>
+        <v>1.059091680065549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033228020159474</v>
+        <v>1.053388591378931</v>
       </c>
       <c r="D5">
-        <v>1.046857188204058</v>
+        <v>1.05772570153048</v>
       </c>
       <c r="E5">
-        <v>1.04962229036496</v>
+        <v>1.066183092503432</v>
       </c>
       <c r="F5">
-        <v>1.055506019003896</v>
+        <v>1.071970154883403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055756083537106</v>
+        <v>1.046182452242802</v>
       </c>
       <c r="J5">
-        <v>1.051385085925646</v>
+        <v>1.057743296425214</v>
       </c>
       <c r="K5">
-        <v>1.056209893997415</v>
+        <v>1.060105332917648</v>
       </c>
       <c r="L5">
-        <v>1.058946021652633</v>
+        <v>1.068542886175538</v>
       </c>
       <c r="M5">
-        <v>1.064768713158497</v>
+        <v>1.074316567720925</v>
       </c>
       <c r="N5">
-        <v>1.052878173343216</v>
+        <v>1.059245413230989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033416284709489</v>
+        <v>1.053430420467187</v>
       </c>
       <c r="D6">
-        <v>1.046999011012523</v>
+        <v>1.05775826103049</v>
       </c>
       <c r="E6">
-        <v>1.049791719334636</v>
+        <v>1.066223091131823</v>
       </c>
       <c r="F6">
-        <v>1.055678078888492</v>
+        <v>1.072010851562976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055810087853693</v>
+        <v>1.046192392582622</v>
       </c>
       <c r="J6">
-        <v>1.051496419846342</v>
+        <v>1.057769072262237</v>
       </c>
       <c r="K6">
-        <v>1.056314759759039</v>
+        <v>1.060129307437647</v>
       </c>
       <c r="L6">
-        <v>1.059078339444252</v>
+        <v>1.068574358056457</v>
       </c>
       <c r="M6">
-        <v>1.064903918305049</v>
+        <v>1.074348787109195</v>
       </c>
       <c r="N6">
-        <v>1.052989665370849</v>
+        <v>1.059271225672658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032117752930721</v>
+        <v>1.053142849370946</v>
       </c>
       <c r="D7">
-        <v>1.046021037505756</v>
+        <v>1.057534421509332</v>
       </c>
       <c r="E7">
-        <v>1.048623521565586</v>
+        <v>1.065948133816211</v>
       </c>
       <c r="F7">
-        <v>1.054491757449887</v>
+        <v>1.071731097032008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05543691936687</v>
+        <v>1.046123970331972</v>
       </c>
       <c r="J7">
-        <v>1.050728293851419</v>
+        <v>1.057591832547355</v>
       </c>
       <c r="K7">
-        <v>1.055591205343438</v>
+        <v>1.059964444972249</v>
       </c>
       <c r="L7">
-        <v>1.058165675073364</v>
+        <v>1.068357979886593</v>
       </c>
       <c r="M7">
-        <v>1.063971363499536</v>
+        <v>1.074127271821016</v>
       </c>
       <c r="N7">
-        <v>1.052220448548908</v>
+        <v>1.059093734257051</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026587978591216</v>
+        <v>1.051942194120122</v>
       </c>
       <c r="D8">
-        <v>1.0418624912122</v>
+        <v>1.056599959523002</v>
       </c>
       <c r="E8">
-        <v>1.043659512698649</v>
+        <v>1.064800881672661</v>
       </c>
       <c r="F8">
-        <v>1.049451154601921</v>
+        <v>1.070563861275976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053830876720723</v>
+        <v>1.045836222047185</v>
       </c>
       <c r="J8">
-        <v>1.047452060608258</v>
+        <v>1.056851002674816</v>
       </c>
       <c r="K8">
-        <v>1.05250376343966</v>
+        <v>1.059275127170408</v>
       </c>
       <c r="L8">
-        <v>1.054278863125515</v>
+        <v>1.067454272113521</v>
       </c>
       <c r="M8">
-        <v>1.060000487002558</v>
+        <v>1.073202163919148</v>
       </c>
       <c r="N8">
-        <v>1.048939562678753</v>
+        <v>1.058351852321118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016430830902921</v>
+        <v>1.049831645520124</v>
       </c>
       <c r="D9">
-        <v>1.034250572291578</v>
+        <v>1.054957760077436</v>
       </c>
       <c r="E9">
-        <v>1.034585005281087</v>
+        <v>1.062787017749172</v>
       </c>
       <c r="F9">
-        <v>1.040238334905572</v>
+        <v>1.068515042656207</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050818237053302</v>
+        <v>1.045322601123249</v>
       </c>
       <c r="J9">
-        <v>1.041416423921245</v>
+        <v>1.055545654438238</v>
       </c>
       <c r="K9">
-        <v>1.046811366709882</v>
+        <v>1.058059710585825</v>
       </c>
       <c r="L9">
-        <v>1.047140823279339</v>
+        <v>1.065864619488555</v>
       </c>
       <c r="M9">
-        <v>1.052710645128081</v>
+        <v>1.071575077021784</v>
       </c>
       <c r="N9">
-        <v>1.042895354695347</v>
+        <v>1.057044650340319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009353440578638</v>
+        <v>1.048428162162654</v>
       </c>
       <c r="D10">
-        <v>1.028967662201185</v>
+        <v>1.053866041159258</v>
       </c>
       <c r="E10">
-        <v>1.028293696526337</v>
+        <v>1.061449744834115</v>
       </c>
       <c r="F10">
-        <v>1.033852397221458</v>
+        <v>1.067154643266408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048678754810008</v>
+        <v>1.044975806413504</v>
       </c>
       <c r="J10">
-        <v>1.037200808235017</v>
+        <v>1.054675550810682</v>
       </c>
       <c r="K10">
-        <v>1.042832878629685</v>
+        <v>1.057248997849131</v>
       </c>
       <c r="L10">
-        <v>1.042170223923932</v>
+        <v>1.064806812578921</v>
       </c>
       <c r="M10">
-        <v>1.047636201985858</v>
+        <v>1.070492502217861</v>
       </c>
       <c r="N10">
-        <v>1.038673752351306</v>
+        <v>1.05617331106581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.006209492796244</v>
+        <v>1.047821296869824</v>
       </c>
       <c r="D11">
-        <v>1.026626557535064</v>
+        <v>1.053394065345949</v>
       </c>
       <c r="E11">
-        <v>1.025507017555169</v>
+        <v>1.060871969399656</v>
       </c>
       <c r="F11">
-        <v>1.031024129029779</v>
+        <v>1.06656689625261</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047719261028484</v>
+        <v>1.044824609309895</v>
       </c>
       <c r="J11">
-        <v>1.035326211907039</v>
+        <v>1.05429883126851</v>
       </c>
       <c r="K11">
-        <v>1.041063218592786</v>
+        <v>1.056897861717064</v>
       </c>
       <c r="L11">
-        <v>1.039963423566199</v>
+        <v>1.06434925289549</v>
       </c>
       <c r="M11">
-        <v>1.045383768929038</v>
+        <v>1.070024263074463</v>
       </c>
       <c r="N11">
-        <v>1.036796493881524</v>
+        <v>1.055796056538677</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005029142612371</v>
+        <v>1.047596009442493</v>
       </c>
       <c r="D12">
-        <v>1.025748541827542</v>
+        <v>1.05321886614026</v>
       </c>
       <c r="E12">
-        <v>1.024462060995019</v>
+        <v>1.060657550729353</v>
       </c>
       <c r="F12">
-        <v>1.029963628595394</v>
+        <v>1.066348780098732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047357710113699</v>
+        <v>1.044768293437566</v>
       </c>
       <c r="J12">
-        <v>1.034622174681952</v>
+        <v>1.054158908176455</v>
       </c>
       <c r="K12">
-        <v>1.040398525134986</v>
+        <v>1.056767421439966</v>
       </c>
       <c r="L12">
-        <v>1.0391351477657</v>
+        <v>1.064179367993609</v>
       </c>
       <c r="M12">
-        <v>1.044538439227755</v>
+        <v>1.069850418190377</v>
       </c>
       <c r="N12">
-        <v>1.036091456842822</v>
+        <v>1.055655934739782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005282909956133</v>
+        <v>1.047644328485202</v>
       </c>
       <c r="D13">
-        <v>1.025937266740044</v>
+        <v>1.053256441797167</v>
       </c>
       <c r="E13">
-        <v>1.024686661768339</v>
+        <v>1.060703535508333</v>
       </c>
       <c r="F13">
-        <v>1.030191567974501</v>
+        <v>1.06639555770994</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047435500203468</v>
+        <v>1.044780380366505</v>
       </c>
       <c r="J13">
-        <v>1.034773548420144</v>
+        <v>1.054188921804995</v>
       </c>
       <c r="K13">
-        <v>1.040541442505914</v>
+        <v>1.056795401877437</v>
       </c>
       <c r="L13">
-        <v>1.039313210063031</v>
+        <v>1.064215805550111</v>
       </c>
       <c r="M13">
-        <v>1.044720164404543</v>
+        <v>1.069887704865906</v>
       </c>
       <c r="N13">
-        <v>1.036243045549086</v>
+        <v>1.055685990991117</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.006112184384402</v>
+        <v>1.047802671894176</v>
       </c>
       <c r="D14">
-        <v>1.026554154614307</v>
+        <v>1.053379580997786</v>
       </c>
       <c r="E14">
-        <v>1.025420845077425</v>
+        <v>1.060854241541741</v>
       </c>
       <c r="F14">
-        <v>1.030936673665178</v>
+        <v>1.066548862628633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047689481311224</v>
+        <v>1.044819957371233</v>
       </c>
       <c r="J14">
-        <v>1.035268175649144</v>
+        <v>1.054287265026105</v>
       </c>
       <c r="K14">
-        <v>1.041008426882396</v>
+        <v>1.056887079735066</v>
       </c>
       <c r="L14">
-        <v>1.039895135199067</v>
+        <v>1.064335208656592</v>
       </c>
       <c r="M14">
-        <v>1.045314073021481</v>
+        <v>1.070009891362261</v>
       </c>
       <c r="N14">
-        <v>1.036738375205486</v>
+        <v>1.055784473870882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006621445772968</v>
+        <v>1.047900249675897</v>
       </c>
       <c r="D15">
-        <v>1.026933111513845</v>
+        <v>1.053455466227684</v>
       </c>
       <c r="E15">
-        <v>1.025871878572594</v>
+        <v>1.060947122107331</v>
       </c>
       <c r="F15">
-        <v>1.031394424000982</v>
+        <v>1.066643345303269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047845279110626</v>
+        <v>1.044844321611018</v>
       </c>
       <c r="J15">
-        <v>1.035571897284991</v>
+        <v>1.054347858534658</v>
       </c>
       <c r="K15">
-        <v>1.041295166132014</v>
+        <v>1.05694356384308</v>
       </c>
       <c r="L15">
-        <v>1.040252530732449</v>
+        <v>1.064408786583724</v>
       </c>
       <c r="M15">
-        <v>1.045678838098149</v>
+        <v>1.070085185136354</v>
       </c>
       <c r="N15">
-        <v>1.037042528160892</v>
+        <v>1.055845153429167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009560369299589</v>
+        <v>1.048468455882238</v>
       </c>
       <c r="D16">
-        <v>1.029121873293704</v>
+        <v>1.053897380486459</v>
       </c>
       <c r="E16">
-        <v>1.028477282952066</v>
+        <v>1.061488116840219</v>
       </c>
       <c r="F16">
-        <v>1.03403873054879</v>
+        <v>1.067193677949167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048741720957203</v>
+        <v>1.04498581916194</v>
       </c>
       <c r="J16">
-        <v>1.037324154085726</v>
+        <v>1.054700553409335</v>
       </c>
       <c r="K16">
-        <v>1.042949310004897</v>
+        <v>1.057272299755221</v>
       </c>
       <c r="L16">
-        <v>1.042315501526388</v>
+        <v>1.06483718948943</v>
       </c>
       <c r="M16">
-        <v>1.047784493711089</v>
+        <v>1.07052358884589</v>
       </c>
       <c r="N16">
-        <v>1.038797273367271</v>
+        <v>1.05619834917102</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011382197398938</v>
+        <v>1.048825105728842</v>
       </c>
       <c r="D17">
-        <v>1.030480224517925</v>
+        <v>1.05417478239267</v>
       </c>
       <c r="E17">
-        <v>1.03009452819325</v>
+        <v>1.061827810418107</v>
       </c>
       <c r="F17">
-        <v>1.035680211200912</v>
+        <v>1.067539240319269</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049295052961018</v>
+        <v>1.045074300786911</v>
       </c>
       <c r="J17">
-        <v>1.038409893705666</v>
+        <v>1.054921801392308</v>
       </c>
       <c r="K17">
-        <v>1.04397412875399</v>
+        <v>1.057478483253075</v>
       </c>
       <c r="L17">
-        <v>1.043594694022349</v>
+        <v>1.06510604417136</v>
       </c>
       <c r="M17">
-        <v>1.049090280030311</v>
+        <v>1.070798728907557</v>
       </c>
       <c r="N17">
-        <v>1.039884554862008</v>
+        <v>1.056419911351507</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012437222750219</v>
+        <v>1.049033215692462</v>
       </c>
       <c r="D18">
-        <v>1.031267385729912</v>
+        <v>1.054336658071836</v>
       </c>
       <c r="E18">
-        <v>1.031031842767663</v>
+        <v>1.062026070607113</v>
       </c>
       <c r="F18">
-        <v>1.036631602854515</v>
+        <v>1.067740927757397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049614622901872</v>
+        <v>1.045125810939146</v>
       </c>
       <c r="J18">
-        <v>1.039038463260223</v>
+        <v>1.055050855483084</v>
       </c>
       <c r="K18">
-        <v>1.044567380227605</v>
+        <v>1.057598737628091</v>
       </c>
       <c r="L18">
-        <v>1.044335594253083</v>
+        <v>1.065262908556738</v>
       </c>
       <c r="M18">
-        <v>1.049846627817248</v>
+        <v>1.070959263806308</v>
       </c>
       <c r="N18">
-        <v>1.04051401705743</v>
+        <v>1.056549148713894</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012795685496301</v>
+        <v>1.049104189704657</v>
       </c>
       <c r="D19">
-        <v>1.031534926252986</v>
+        <v>1.054391865632041</v>
       </c>
       <c r="E19">
-        <v>1.031350439387654</v>
+        <v>1.062093692964809</v>
       </c>
       <c r="F19">
-        <v>1.036954989487223</v>
+        <v>1.067809719409492</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049723054071159</v>
+        <v>1.045143357643303</v>
       </c>
       <c r="J19">
-        <v>1.039251997824737</v>
+        <v>1.055094860217109</v>
       </c>
       <c r="K19">
-        <v>1.044768908107778</v>
+        <v>1.057639739705312</v>
       </c>
       <c r="L19">
-        <v>1.044587346080826</v>
+        <v>1.06531640301883</v>
       </c>
       <c r="M19">
-        <v>1.050103636084475</v>
+        <v>1.071014010556116</v>
       </c>
       <c r="N19">
-        <v>1.040727854865518</v>
+        <v>1.056593215939689</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011187524618488</v>
+        <v>1.048786832069714</v>
       </c>
       <c r="D20">
-        <v>1.030335020808276</v>
+        <v>1.054145012351114</v>
       </c>
       <c r="E20">
-        <v>1.029921636709539</v>
+        <v>1.061791351811458</v>
       </c>
       <c r="F20">
-        <v>1.035504725617233</v>
+        <v>1.067502151624225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04923601579672</v>
+        <v>1.045064817852127</v>
       </c>
       <c r="J20">
-        <v>1.038293895106623</v>
+        <v>1.054898063167409</v>
       </c>
       <c r="K20">
-        <v>1.043864643857152</v>
+        <v>1.057456362634559</v>
       </c>
       <c r="L20">
-        <v>1.043457992553741</v>
+        <v>1.065077193840715</v>
       </c>
       <c r="M20">
-        <v>1.048950731959118</v>
+        <v>1.070769203764024</v>
       </c>
       <c r="N20">
-        <v>1.039768391531649</v>
+        <v>1.056396139415605</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005868335302615</v>
+        <v>1.047756040125154</v>
       </c>
       <c r="D21">
-        <v>1.026372732229816</v>
+        <v>1.053343316422918</v>
       </c>
       <c r="E21">
-        <v>1.025204922492136</v>
+        <v>1.060809857034141</v>
       </c>
       <c r="F21">
-        <v>1.03071753738359</v>
+        <v>1.066503712636927</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047614833947892</v>
+        <v>1.044808307190758</v>
       </c>
       <c r="J21">
-        <v>1.03512273641084</v>
+        <v>1.054258305187342</v>
       </c>
       <c r="K21">
-        <v>1.040871117457105</v>
+        <v>1.056860083231773</v>
       </c>
       <c r="L21">
-        <v>1.039724012581423</v>
+        <v>1.064300045387817</v>
       </c>
       <c r="M21">
-        <v>1.04513942446448</v>
+        <v>1.069973908265162</v>
       </c>
       <c r="N21">
-        <v>1.03659272942678</v>
+        <v>1.055755472905826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002451014323262</v>
+        <v>1.047108689430356</v>
       </c>
       <c r="D22">
-        <v>1.023832534946531</v>
+        <v>1.052839916569039</v>
       </c>
       <c r="E22">
-        <v>1.022182036629724</v>
+        <v>1.060193868916171</v>
       </c>
       <c r="F22">
-        <v>1.027649785705684</v>
+        <v>1.065877108100778</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046565625116492</v>
+        <v>1.044646134966572</v>
       </c>
       <c r="J22">
-        <v>1.033084005445914</v>
+        <v>1.053856106871153</v>
       </c>
       <c r="K22">
-        <v>1.038946201551239</v>
+        <v>1.056485105900566</v>
       </c>
       <c r="L22">
-        <v>1.037326509024832</v>
+        <v>1.06381184514056</v>
       </c>
       <c r="M22">
-        <v>1.04269269911856</v>
+        <v>1.069474337877846</v>
       </c>
       <c r="N22">
-        <v>1.034551103230039</v>
+        <v>1.055352703421895</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004269731976087</v>
+        <v>1.047451790832352</v>
       </c>
       <c r="D23">
-        <v>1.025183913328528</v>
+        <v>1.05310671543409</v>
       </c>
       <c r="E23">
-        <v>1.023790121560341</v>
+        <v>1.060520309475374</v>
       </c>
       <c r="F23">
-        <v>1.029281708755143</v>
+        <v>1.066209173094652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047124729139182</v>
+        <v>1.044732190045486</v>
       </c>
       <c r="J23">
-        <v>1.034169148789442</v>
+        <v>1.054069315356076</v>
       </c>
       <c r="K23">
-        <v>1.039970798116419</v>
+        <v>1.056683894990623</v>
       </c>
       <c r="L23">
-        <v>1.038602326259932</v>
+        <v>1.064070608696507</v>
       </c>
       <c r="M23">
-        <v>1.043994668131409</v>
+        <v>1.069739125185996</v>
       </c>
       <c r="N23">
-        <v>1.035637787601582</v>
+        <v>1.055566214687322</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011275512359647</v>
+        <v>1.048804126035132</v>
       </c>
       <c r="D24">
-        <v>1.030400647978031</v>
+        <v>1.054158463929675</v>
       </c>
       <c r="E24">
-        <v>1.029999777428472</v>
+        <v>1.06180782550762</v>
       </c>
       <c r="F24">
-        <v>1.035584038680453</v>
+        <v>1.067518910017604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049262701961732</v>
+        <v>1.045069103090238</v>
       </c>
       <c r="J24">
-        <v>1.038346324454785</v>
+        <v>1.054908789437563</v>
       </c>
       <c r="K24">
-        <v>1.043914129277999</v>
+        <v>1.057466358017747</v>
       </c>
       <c r="L24">
-        <v>1.043519778201224</v>
+        <v>1.065090229921316</v>
       </c>
       <c r="M24">
-        <v>1.049013804061848</v>
+        <v>1.070782544750065</v>
       </c>
       <c r="N24">
-        <v>1.039820895335499</v>
+        <v>1.056406880918294</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019108447694718</v>
+        <v>1.050376653270359</v>
       </c>
       <c r="D25">
-        <v>1.036253819411554</v>
+        <v>1.055381771896686</v>
       </c>
       <c r="E25">
-        <v>1.036971916006933</v>
+        <v>1.063306722365009</v>
       </c>
       <c r="F25">
-        <v>1.042661416354501</v>
+        <v>1.069043752947314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051619538237289</v>
+        <v>1.045456159350275</v>
       </c>
       <c r="J25">
-        <v>1.043009415637437</v>
+        <v>1.05588310064609</v>
       </c>
       <c r="K25">
-        <v>1.048314251880335</v>
+        <v>1.058374006683161</v>
       </c>
       <c r="L25">
-        <v>1.049022174735793</v>
+        <v>1.066275243054135</v>
       </c>
       <c r="M25">
-        <v>1.054631693580111</v>
+        <v>1.071995345281163</v>
       </c>
       <c r="N25">
-        <v>1.044490608642494</v>
+        <v>1.057382575760492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0516334435754</v>
+        <v>1.025137344623933</v>
       </c>
       <c r="D2">
-        <v>1.056359688791404</v>
+        <v>1.040773239182454</v>
       </c>
       <c r="E2">
-        <v>1.064506053812791</v>
+        <v>1.042360113929291</v>
       </c>
       <c r="F2">
-        <v>1.070263906301469</v>
+        <v>1.048131816617313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045761696423113</v>
+        <v>1.053405311941205</v>
       </c>
       <c r="J2">
-        <v>1.05666028622786</v>
+        <v>1.046591344124254</v>
       </c>
       <c r="K2">
-        <v>1.059097615050719</v>
+        <v>1.051692325044049</v>
       </c>
       <c r="L2">
-        <v>1.067221807516844</v>
+        <v>1.053259239665017</v>
       </c>
       <c r="M2">
-        <v>1.072964208639068</v>
+        <v>1.058958979080197</v>
       </c>
       <c r="N2">
-        <v>1.058160865034933</v>
+        <v>1.048077623878615</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052547439563288</v>
+        <v>1.029397492377247</v>
       </c>
       <c r="D3">
-        <v>1.057070996826647</v>
+        <v>1.043974075480379</v>
       </c>
       <c r="E3">
-        <v>1.065379058889307</v>
+        <v>1.046179428079112</v>
       </c>
       <c r="F3">
-        <v>1.071152103033569</v>
+        <v>1.05200986784654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045981689177238</v>
+        <v>1.054650174198169</v>
       </c>
       <c r="J3">
-        <v>1.057224616786036</v>
+        <v>1.049117616254241</v>
       </c>
       <c r="K3">
-        <v>1.059622807162075</v>
+        <v>1.054073596176347</v>
       </c>
       <c r="L3">
-        <v>1.067909886069966</v>
+        <v>1.056253658082532</v>
       </c>
       <c r="M3">
-        <v>1.073668555944095</v>
+        <v>1.062017864537149</v>
       </c>
       <c r="N3">
-        <v>1.058725997007231</v>
+        <v>1.050607483604794</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053139521911875</v>
+        <v>1.032102669683264</v>
       </c>
       <c r="D4">
-        <v>1.057531831537789</v>
+        <v>1.046009680934313</v>
       </c>
       <c r="E4">
-        <v>1.065944952713894</v>
+        <v>1.048609957951986</v>
       </c>
       <c r="F4">
-        <v>1.071727860446451</v>
+        <v>1.0544779836303</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046123177485899</v>
+        <v>1.055432575519197</v>
       </c>
       <c r="J4">
-        <v>1.057589781268904</v>
+        <v>1.050719368693921</v>
       </c>
       <c r="K4">
-        <v>1.059962536819187</v>
+        <v>1.055582797345602</v>
       </c>
       <c r="L4">
-        <v>1.068355476031912</v>
+        <v>1.058155073680999</v>
       </c>
       <c r="M4">
-        <v>1.074124708551529</v>
+        <v>1.063960531406663</v>
       </c>
       <c r="N4">
-        <v>1.059091680065549</v>
+        <v>1.052211510716662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053388591378931</v>
+        <v>1.033228020159473</v>
       </c>
       <c r="D5">
-        <v>1.05772570153048</v>
+        <v>1.046857188204057</v>
       </c>
       <c r="E5">
-        <v>1.066183092503432</v>
+        <v>1.04962229036496</v>
       </c>
       <c r="F5">
-        <v>1.071970154883403</v>
+        <v>1.055506019003896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046182452242802</v>
+        <v>1.055756083537106</v>
       </c>
       <c r="J5">
-        <v>1.057743296425214</v>
+        <v>1.051385085925646</v>
       </c>
       <c r="K5">
-        <v>1.060105332917648</v>
+        <v>1.056209893997415</v>
       </c>
       <c r="L5">
-        <v>1.068542886175538</v>
+        <v>1.058946021652633</v>
       </c>
       <c r="M5">
-        <v>1.074316567720925</v>
+        <v>1.064768713158497</v>
       </c>
       <c r="N5">
-        <v>1.059245413230989</v>
+        <v>1.052878173343215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053430420467187</v>
+        <v>1.033416284709489</v>
       </c>
       <c r="D6">
-        <v>1.05775826103049</v>
+        <v>1.046999011012522</v>
       </c>
       <c r="E6">
-        <v>1.066223091131823</v>
+        <v>1.049791719334635</v>
       </c>
       <c r="F6">
-        <v>1.072010851562976</v>
+        <v>1.055678078888492</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046192392582622</v>
+        <v>1.055810087853692</v>
       </c>
       <c r="J6">
-        <v>1.057769072262237</v>
+        <v>1.051496419846341</v>
       </c>
       <c r="K6">
-        <v>1.060129307437647</v>
+        <v>1.056314759759038</v>
       </c>
       <c r="L6">
-        <v>1.068574358056457</v>
+        <v>1.059078339444251</v>
       </c>
       <c r="M6">
-        <v>1.074348787109195</v>
+        <v>1.064903918305049</v>
       </c>
       <c r="N6">
-        <v>1.059271225672658</v>
+        <v>1.052989665370849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.053142849370946</v>
+        <v>1.03211775293072</v>
       </c>
       <c r="D7">
-        <v>1.057534421509332</v>
+        <v>1.046021037505756</v>
       </c>
       <c r="E7">
-        <v>1.065948133816211</v>
+        <v>1.048623521565585</v>
       </c>
       <c r="F7">
-        <v>1.071731097032008</v>
+        <v>1.054491757449886</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046123970331972</v>
+        <v>1.05543691936687</v>
       </c>
       <c r="J7">
-        <v>1.057591832547355</v>
+        <v>1.050728293851419</v>
       </c>
       <c r="K7">
-        <v>1.059964444972249</v>
+        <v>1.055591205343438</v>
       </c>
       <c r="L7">
-        <v>1.068357979886593</v>
+        <v>1.058165675073363</v>
       </c>
       <c r="M7">
-        <v>1.074127271821016</v>
+        <v>1.063971363499536</v>
       </c>
       <c r="N7">
-        <v>1.059093734257051</v>
+        <v>1.052220448548908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051942194120122</v>
+        <v>1.026587978591215</v>
       </c>
       <c r="D8">
-        <v>1.056599959523002</v>
+        <v>1.0418624912122</v>
       </c>
       <c r="E8">
-        <v>1.064800881672661</v>
+        <v>1.043659512698648</v>
       </c>
       <c r="F8">
-        <v>1.070563861275976</v>
+        <v>1.04945115460192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045836222047185</v>
+        <v>1.053830876720723</v>
       </c>
       <c r="J8">
-        <v>1.056851002674816</v>
+        <v>1.047452060608258</v>
       </c>
       <c r="K8">
-        <v>1.059275127170408</v>
+        <v>1.052503763439659</v>
       </c>
       <c r="L8">
-        <v>1.067454272113521</v>
+        <v>1.054278863125515</v>
       </c>
       <c r="M8">
-        <v>1.073202163919148</v>
+        <v>1.060000487002558</v>
       </c>
       <c r="N8">
-        <v>1.058351852321118</v>
+        <v>1.048939562678753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049831645520124</v>
+        <v>1.01643083090292</v>
       </c>
       <c r="D9">
-        <v>1.054957760077436</v>
+        <v>1.034250572291578</v>
       </c>
       <c r="E9">
-        <v>1.062787017749172</v>
+        <v>1.034585005281087</v>
       </c>
       <c r="F9">
-        <v>1.068515042656207</v>
+        <v>1.040238334905572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045322601123249</v>
+        <v>1.050818237053302</v>
       </c>
       <c r="J9">
-        <v>1.055545654438238</v>
+        <v>1.041416423921245</v>
       </c>
       <c r="K9">
-        <v>1.058059710585825</v>
+        <v>1.046811366709882</v>
       </c>
       <c r="L9">
-        <v>1.065864619488555</v>
+        <v>1.047140823279339</v>
       </c>
       <c r="M9">
-        <v>1.071575077021784</v>
+        <v>1.052710645128081</v>
       </c>
       <c r="N9">
-        <v>1.057044650340319</v>
+        <v>1.042895354695346</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048428162162654</v>
+        <v>1.009353440578638</v>
       </c>
       <c r="D10">
-        <v>1.053866041159258</v>
+        <v>1.028967662201185</v>
       </c>
       <c r="E10">
-        <v>1.061449744834115</v>
+        <v>1.028293696526336</v>
       </c>
       <c r="F10">
-        <v>1.067154643266408</v>
+        <v>1.033852397221458</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044975806413504</v>
+        <v>1.048678754810008</v>
       </c>
       <c r="J10">
-        <v>1.054675550810682</v>
+        <v>1.037200808235017</v>
       </c>
       <c r="K10">
-        <v>1.057248997849131</v>
+        <v>1.042832878629685</v>
       </c>
       <c r="L10">
-        <v>1.064806812578921</v>
+        <v>1.042170223923932</v>
       </c>
       <c r="M10">
-        <v>1.070492502217861</v>
+        <v>1.047636201985857</v>
       </c>
       <c r="N10">
-        <v>1.05617331106581</v>
+        <v>1.038673752351306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047821296869824</v>
+        <v>1.006209492796243</v>
       </c>
       <c r="D11">
-        <v>1.053394065345949</v>
+        <v>1.026626557535062</v>
       </c>
       <c r="E11">
-        <v>1.060871969399656</v>
+        <v>1.025507017555167</v>
       </c>
       <c r="F11">
-        <v>1.06656689625261</v>
+        <v>1.031024129029777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044824609309895</v>
+        <v>1.047719261028484</v>
       </c>
       <c r="J11">
-        <v>1.05429883126851</v>
+        <v>1.035326211907038</v>
       </c>
       <c r="K11">
-        <v>1.056897861717064</v>
+        <v>1.041063218592785</v>
       </c>
       <c r="L11">
-        <v>1.06434925289549</v>
+        <v>1.039963423566197</v>
       </c>
       <c r="M11">
-        <v>1.070024263074463</v>
+        <v>1.045383768929036</v>
       </c>
       <c r="N11">
-        <v>1.055796056538677</v>
+        <v>1.036796493881522</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047596009442493</v>
+        <v>1.00502914261237</v>
       </c>
       <c r="D12">
-        <v>1.05321886614026</v>
+        <v>1.025748541827541</v>
       </c>
       <c r="E12">
-        <v>1.060657550729353</v>
+        <v>1.024462060995017</v>
       </c>
       <c r="F12">
-        <v>1.066348780098732</v>
+        <v>1.029963628595393</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044768293437566</v>
+        <v>1.047357710113699</v>
       </c>
       <c r="J12">
-        <v>1.054158908176455</v>
+        <v>1.034622174681951</v>
       </c>
       <c r="K12">
-        <v>1.056767421439966</v>
+        <v>1.040398525134986</v>
       </c>
       <c r="L12">
-        <v>1.064179367993609</v>
+        <v>1.039135147765699</v>
       </c>
       <c r="M12">
-        <v>1.069850418190377</v>
+        <v>1.044538439227753</v>
       </c>
       <c r="N12">
-        <v>1.055655934739782</v>
+        <v>1.036091456842821</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047644328485202</v>
+        <v>1.005282909956133</v>
       </c>
       <c r="D13">
-        <v>1.053256441797167</v>
+        <v>1.025937266740043</v>
       </c>
       <c r="E13">
-        <v>1.060703535508333</v>
+        <v>1.024686661768338</v>
       </c>
       <c r="F13">
-        <v>1.06639555770994</v>
+        <v>1.030191567974501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044780380366505</v>
+        <v>1.047435500203468</v>
       </c>
       <c r="J13">
-        <v>1.054188921804995</v>
+        <v>1.034773548420144</v>
       </c>
       <c r="K13">
-        <v>1.056795401877437</v>
+        <v>1.040541442505913</v>
       </c>
       <c r="L13">
-        <v>1.064215805550111</v>
+        <v>1.039313210063031</v>
       </c>
       <c r="M13">
-        <v>1.069887704865906</v>
+        <v>1.044720164404542</v>
       </c>
       <c r="N13">
-        <v>1.055685990991117</v>
+        <v>1.036243045549086</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047802671894176</v>
+        <v>1.006112184384401</v>
       </c>
       <c r="D14">
-        <v>1.053379580997786</v>
+        <v>1.026554154614306</v>
       </c>
       <c r="E14">
-        <v>1.060854241541741</v>
+        <v>1.025420845077424</v>
       </c>
       <c r="F14">
-        <v>1.066548862628633</v>
+        <v>1.030936673665177</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044819957371233</v>
+        <v>1.047689481311223</v>
       </c>
       <c r="J14">
-        <v>1.054287265026105</v>
+        <v>1.035268175649144</v>
       </c>
       <c r="K14">
-        <v>1.056887079735066</v>
+        <v>1.041008426882396</v>
       </c>
       <c r="L14">
-        <v>1.064335208656592</v>
+        <v>1.039895135199066</v>
       </c>
       <c r="M14">
-        <v>1.070009891362261</v>
+        <v>1.04531407302148</v>
       </c>
       <c r="N14">
-        <v>1.055784473870882</v>
+        <v>1.036738375205485</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047900249675897</v>
+        <v>1.006621445772968</v>
       </c>
       <c r="D15">
-        <v>1.053455466227684</v>
+        <v>1.026933111513846</v>
       </c>
       <c r="E15">
-        <v>1.060947122107331</v>
+        <v>1.025871878572595</v>
       </c>
       <c r="F15">
-        <v>1.066643345303269</v>
+        <v>1.031394424000983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044844321611018</v>
+        <v>1.047845279110626</v>
       </c>
       <c r="J15">
-        <v>1.054347858534658</v>
+        <v>1.035571897284991</v>
       </c>
       <c r="K15">
-        <v>1.05694356384308</v>
+        <v>1.041295166132014</v>
       </c>
       <c r="L15">
-        <v>1.064408786583724</v>
+        <v>1.040252530732449</v>
       </c>
       <c r="M15">
-        <v>1.070085185136354</v>
+        <v>1.045678838098149</v>
       </c>
       <c r="N15">
-        <v>1.055845153429167</v>
+        <v>1.037042528160893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048468455882238</v>
+        <v>1.009560369299589</v>
       </c>
       <c r="D16">
-        <v>1.053897380486459</v>
+        <v>1.029121873293704</v>
       </c>
       <c r="E16">
-        <v>1.061488116840219</v>
+        <v>1.028477282952065</v>
       </c>
       <c r="F16">
-        <v>1.067193677949167</v>
+        <v>1.03403873054879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04498581916194</v>
+        <v>1.048741720957203</v>
       </c>
       <c r="J16">
-        <v>1.054700553409335</v>
+        <v>1.037324154085725</v>
       </c>
       <c r="K16">
-        <v>1.057272299755221</v>
+        <v>1.042949310004897</v>
       </c>
       <c r="L16">
-        <v>1.06483718948943</v>
+        <v>1.042315501526388</v>
       </c>
       <c r="M16">
-        <v>1.07052358884589</v>
+        <v>1.047784493711088</v>
       </c>
       <c r="N16">
-        <v>1.05619834917102</v>
+        <v>1.038797273367271</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048825105728842</v>
+        <v>1.011382197398937</v>
       </c>
       <c r="D17">
-        <v>1.05417478239267</v>
+        <v>1.030480224517924</v>
       </c>
       <c r="E17">
-        <v>1.061827810418107</v>
+        <v>1.030094528193249</v>
       </c>
       <c r="F17">
-        <v>1.067539240319269</v>
+        <v>1.035680211200911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045074300786911</v>
+        <v>1.049295052961017</v>
       </c>
       <c r="J17">
-        <v>1.054921801392308</v>
+        <v>1.038409893705665</v>
       </c>
       <c r="K17">
-        <v>1.057478483253075</v>
+        <v>1.043974128753989</v>
       </c>
       <c r="L17">
-        <v>1.06510604417136</v>
+        <v>1.043594694022348</v>
       </c>
       <c r="M17">
-        <v>1.070798728907557</v>
+        <v>1.04909028003031</v>
       </c>
       <c r="N17">
-        <v>1.056419911351507</v>
+        <v>1.039884554862007</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049033215692462</v>
+        <v>1.012437222750218</v>
       </c>
       <c r="D18">
-        <v>1.054336658071836</v>
+        <v>1.031267385729911</v>
       </c>
       <c r="E18">
-        <v>1.062026070607113</v>
+        <v>1.031031842767662</v>
       </c>
       <c r="F18">
-        <v>1.067740927757397</v>
+        <v>1.036631602854514</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045125810939146</v>
+        <v>1.049614622901871</v>
       </c>
       <c r="J18">
-        <v>1.055050855483084</v>
+        <v>1.039038463260222</v>
       </c>
       <c r="K18">
-        <v>1.057598737628091</v>
+        <v>1.044567380227605</v>
       </c>
       <c r="L18">
-        <v>1.065262908556738</v>
+        <v>1.044335594253081</v>
       </c>
       <c r="M18">
-        <v>1.070959263806308</v>
+        <v>1.049846627817247</v>
       </c>
       <c r="N18">
-        <v>1.056549148713894</v>
+        <v>1.040514017057429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049104189704657</v>
+        <v>1.012795685496302</v>
       </c>
       <c r="D19">
-        <v>1.054391865632041</v>
+        <v>1.031534926252987</v>
       </c>
       <c r="E19">
-        <v>1.062093692964809</v>
+        <v>1.031350439387654</v>
       </c>
       <c r="F19">
-        <v>1.067809719409492</v>
+        <v>1.036954989487224</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045143357643303</v>
+        <v>1.04972305407116</v>
       </c>
       <c r="J19">
-        <v>1.055094860217109</v>
+        <v>1.039251997824737</v>
       </c>
       <c r="K19">
-        <v>1.057639739705312</v>
+        <v>1.044768908107778</v>
       </c>
       <c r="L19">
-        <v>1.06531640301883</v>
+        <v>1.044587346080827</v>
       </c>
       <c r="M19">
-        <v>1.071014010556116</v>
+        <v>1.050103636084476</v>
       </c>
       <c r="N19">
-        <v>1.056593215939689</v>
+        <v>1.040727854865518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048786832069714</v>
+        <v>1.011187524618488</v>
       </c>
       <c r="D20">
-        <v>1.054145012351114</v>
+        <v>1.030335020808276</v>
       </c>
       <c r="E20">
-        <v>1.061791351811458</v>
+        <v>1.029921636709538</v>
       </c>
       <c r="F20">
-        <v>1.067502151624225</v>
+        <v>1.035504725617233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045064817852127</v>
+        <v>1.049236015796719</v>
       </c>
       <c r="J20">
-        <v>1.054898063167409</v>
+        <v>1.038293895106623</v>
       </c>
       <c r="K20">
-        <v>1.057456362634559</v>
+        <v>1.043864643857152</v>
       </c>
       <c r="L20">
-        <v>1.065077193840715</v>
+        <v>1.043457992553741</v>
       </c>
       <c r="M20">
-        <v>1.070769203764024</v>
+        <v>1.048950731959117</v>
       </c>
       <c r="N20">
-        <v>1.056396139415605</v>
+        <v>1.039768391531648</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047756040125154</v>
+        <v>1.005868335302613</v>
       </c>
       <c r="D21">
-        <v>1.053343316422918</v>
+        <v>1.026372732229815</v>
       </c>
       <c r="E21">
-        <v>1.060809857034141</v>
+        <v>1.025204922492134</v>
       </c>
       <c r="F21">
-        <v>1.066503712636927</v>
+        <v>1.030717537383588</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044808307190758</v>
+        <v>1.047614833947891</v>
       </c>
       <c r="J21">
-        <v>1.054258305187342</v>
+        <v>1.035122736410839</v>
       </c>
       <c r="K21">
-        <v>1.056860083231773</v>
+        <v>1.040871117457104</v>
       </c>
       <c r="L21">
-        <v>1.064300045387817</v>
+        <v>1.039724012581422</v>
       </c>
       <c r="M21">
-        <v>1.069973908265162</v>
+        <v>1.045139424464478</v>
       </c>
       <c r="N21">
-        <v>1.055755472905826</v>
+        <v>1.036592729426779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047108689430356</v>
+        <v>1.002451014323262</v>
       </c>
       <c r="D22">
-        <v>1.052839916569039</v>
+        <v>1.023832534946531</v>
       </c>
       <c r="E22">
-        <v>1.060193868916171</v>
+        <v>1.022182036629724</v>
       </c>
       <c r="F22">
-        <v>1.065877108100778</v>
+        <v>1.027649785705684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044646134966572</v>
+        <v>1.046565625116492</v>
       </c>
       <c r="J22">
-        <v>1.053856106871153</v>
+        <v>1.033084005445914</v>
       </c>
       <c r="K22">
-        <v>1.056485105900566</v>
+        <v>1.038946201551239</v>
       </c>
       <c r="L22">
-        <v>1.06381184514056</v>
+        <v>1.037326509024831</v>
       </c>
       <c r="M22">
-        <v>1.069474337877846</v>
+        <v>1.04269269911856</v>
       </c>
       <c r="N22">
-        <v>1.055352703421895</v>
+        <v>1.034551103230039</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047451790832352</v>
+        <v>1.004269731976086</v>
       </c>
       <c r="D23">
-        <v>1.05310671543409</v>
+        <v>1.025183913328527</v>
       </c>
       <c r="E23">
-        <v>1.060520309475374</v>
+        <v>1.023790121560339</v>
       </c>
       <c r="F23">
-        <v>1.066209173094652</v>
+        <v>1.029281708755142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044732190045486</v>
+        <v>1.047124729139181</v>
       </c>
       <c r="J23">
-        <v>1.054069315356076</v>
+        <v>1.034169148789441</v>
       </c>
       <c r="K23">
-        <v>1.056683894990623</v>
+        <v>1.039970798116418</v>
       </c>
       <c r="L23">
-        <v>1.064070608696507</v>
+        <v>1.038602326259931</v>
       </c>
       <c r="M23">
-        <v>1.069739125185996</v>
+        <v>1.043994668131407</v>
       </c>
       <c r="N23">
-        <v>1.055566214687322</v>
+        <v>1.035637787601581</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048804126035132</v>
+        <v>1.011275512359647</v>
       </c>
       <c r="D24">
-        <v>1.054158463929675</v>
+        <v>1.030400647978031</v>
       </c>
       <c r="E24">
-        <v>1.06180782550762</v>
+        <v>1.029999777428471</v>
       </c>
       <c r="F24">
-        <v>1.067518910017604</v>
+        <v>1.035584038680452</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045069103090238</v>
+        <v>1.049262701961732</v>
       </c>
       <c r="J24">
-        <v>1.054908789437563</v>
+        <v>1.038346324454785</v>
       </c>
       <c r="K24">
-        <v>1.057466358017747</v>
+        <v>1.043914129277998</v>
       </c>
       <c r="L24">
-        <v>1.065090229921316</v>
+        <v>1.043519778201223</v>
       </c>
       <c r="M24">
-        <v>1.070782544750065</v>
+        <v>1.049013804061848</v>
       </c>
       <c r="N24">
-        <v>1.056406880918294</v>
+        <v>1.039820895335499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050376653270359</v>
+        <v>1.019108447694718</v>
       </c>
       <c r="D25">
-        <v>1.055381771896686</v>
+        <v>1.036253819411554</v>
       </c>
       <c r="E25">
-        <v>1.063306722365009</v>
+        <v>1.036971916006933</v>
       </c>
       <c r="F25">
-        <v>1.069043752947314</v>
+        <v>1.042661416354501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045456159350275</v>
+        <v>1.051619538237289</v>
       </c>
       <c r="J25">
-        <v>1.05588310064609</v>
+        <v>1.043009415637437</v>
       </c>
       <c r="K25">
-        <v>1.058374006683161</v>
+        <v>1.048314251880336</v>
       </c>
       <c r="L25">
-        <v>1.066275243054135</v>
+        <v>1.049022174735793</v>
       </c>
       <c r="M25">
-        <v>1.071995345281163</v>
+        <v>1.054631693580112</v>
       </c>
       <c r="N25">
-        <v>1.057382575760492</v>
+        <v>1.044490608642495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025137344623933</v>
+        <v>0.9923595434752649</v>
       </c>
       <c r="D2">
-        <v>1.040773239182454</v>
+        <v>1.01458599626605</v>
       </c>
       <c r="E2">
-        <v>1.042360113929291</v>
+        <v>1.000587636924191</v>
       </c>
       <c r="F2">
-        <v>1.048131816617313</v>
+        <v>1.013312399544671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053405311941205</v>
+        <v>1.040760011126747</v>
       </c>
       <c r="J2">
-        <v>1.046591344124254</v>
+        <v>1.014771205814034</v>
       </c>
       <c r="K2">
-        <v>1.051692325044049</v>
+        <v>1.025845797276026</v>
       </c>
       <c r="L2">
-        <v>1.053259239665017</v>
+        <v>1.012038791097331</v>
       </c>
       <c r="M2">
-        <v>1.058958979080197</v>
+        <v>1.024589335347645</v>
       </c>
       <c r="N2">
-        <v>1.048077623878615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008767050251944</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028033090111763</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029345310510678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029397492377247</v>
+        <v>0.9962222076557042</v>
       </c>
       <c r="D3">
-        <v>1.043974075480379</v>
+        <v>1.017035423482699</v>
       </c>
       <c r="E3">
-        <v>1.046179428079112</v>
+        <v>1.003939786135819</v>
       </c>
       <c r="F3">
-        <v>1.05200986784654</v>
+        <v>1.016395859578343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054650174198169</v>
+        <v>1.041333347653599</v>
       </c>
       <c r="J3">
-        <v>1.049117616254241</v>
+        <v>1.016816391592848</v>
       </c>
       <c r="K3">
-        <v>1.054073596176347</v>
+        <v>1.027454875891583</v>
       </c>
       <c r="L3">
-        <v>1.056253658082532</v>
+        <v>1.014522503644163</v>
       </c>
       <c r="M3">
-        <v>1.062017864537149</v>
+        <v>1.026823163939125</v>
       </c>
       <c r="N3">
-        <v>1.050607483604794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009471020833835</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.029801044690465</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030480399665695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032102669683264</v>
+        <v>0.9986749083443611</v>
       </c>
       <c r="D4">
-        <v>1.046009680934313</v>
+        <v>1.018593617443895</v>
       </c>
       <c r="E4">
-        <v>1.048609957951986</v>
+        <v>1.006073847927363</v>
       </c>
       <c r="F4">
-        <v>1.0544779836303</v>
+        <v>1.018361114502769</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055432575519197</v>
+        <v>1.041686882942966</v>
       </c>
       <c r="J4">
-        <v>1.050719368693921</v>
+        <v>1.018112570946193</v>
       </c>
       <c r="K4">
-        <v>1.055582797345602</v>
+        <v>1.028472696039013</v>
       </c>
       <c r="L4">
-        <v>1.058155073680999</v>
+        <v>1.016099515554597</v>
       </c>
       <c r="M4">
-        <v>1.063960531406663</v>
+        <v>1.02824287480401</v>
       </c>
       <c r="N4">
-        <v>1.052211510716662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009916930619894</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.030924666750507</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031201010246207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033228020159473</v>
+        <v>0.9996981211220817</v>
       </c>
       <c r="D5">
-        <v>1.046857188204057</v>
+        <v>1.019246438884062</v>
       </c>
       <c r="E5">
-        <v>1.04962229036496</v>
+        <v>1.006965793792086</v>
       </c>
       <c r="F5">
-        <v>1.055506019003896</v>
+        <v>1.019181616736561</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055756083537106</v>
+        <v>1.041833202824362</v>
       </c>
       <c r="J5">
-        <v>1.051385085925646</v>
+        <v>1.018653999456867</v>
       </c>
       <c r="K5">
-        <v>1.056209893997415</v>
+        <v>1.028899076320175</v>
       </c>
       <c r="L5">
-        <v>1.058946021652633</v>
+        <v>1.01675835887436</v>
       </c>
       <c r="M5">
-        <v>1.064768713158497</v>
+        <v>1.028834981863194</v>
       </c>
       <c r="N5">
-        <v>1.052878173343215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010103418088452</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031393285966128</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031509757622269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033416284709489</v>
+        <v>0.9998728719872657</v>
       </c>
       <c r="D6">
-        <v>1.046999011012522</v>
+        <v>1.019360564839691</v>
       </c>
       <c r="E6">
-        <v>1.049791719334635</v>
+        <v>1.007118643193819</v>
       </c>
       <c r="F6">
-        <v>1.055678078888492</v>
+        <v>1.01932052504565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055810087853692</v>
+        <v>1.04185974667519</v>
       </c>
       <c r="J6">
-        <v>1.051496419846341</v>
+        <v>1.018748026734813</v>
       </c>
       <c r="K6">
-        <v>1.056314759759038</v>
+        <v>1.028975172148652</v>
       </c>
       <c r="L6">
-        <v>1.059078339444251</v>
+        <v>1.01687209238659</v>
       </c>
       <c r="M6">
-        <v>1.064903918305049</v>
+        <v>1.028935579774583</v>
       </c>
       <c r="N6">
-        <v>1.052989665370849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010136152582462</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031472903486391</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03157241008935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03211775293072</v>
+        <v>0.9986982430941382</v>
       </c>
       <c r="D7">
-        <v>1.046021037505756</v>
+        <v>1.018615448481101</v>
       </c>
       <c r="E7">
-        <v>1.048623521565585</v>
+        <v>1.006095368939444</v>
       </c>
       <c r="F7">
-        <v>1.054491757449886</v>
+        <v>1.018376263608128</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05543691936687</v>
+        <v>1.041694808937333</v>
       </c>
       <c r="J7">
-        <v>1.050728293851419</v>
+        <v>1.018129203757865</v>
       </c>
       <c r="K7">
-        <v>1.055591205343438</v>
+        <v>1.028491347524681</v>
       </c>
       <c r="L7">
-        <v>1.058165675073363</v>
+        <v>1.016117803766743</v>
       </c>
       <c r="M7">
-        <v>1.063971363499536</v>
+        <v>1.02825492038132</v>
       </c>
       <c r="N7">
-        <v>1.052220448548908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009923621012714</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.030934200146139</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031234544121903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026587978591215</v>
+        <v>0.9936868797570574</v>
       </c>
       <c r="D8">
-        <v>1.0418624912122</v>
+        <v>1.015435641159461</v>
       </c>
       <c r="E8">
-        <v>1.043659512698648</v>
+        <v>1.001739880201281</v>
       </c>
       <c r="F8">
-        <v>1.04945115460192</v>
+        <v>1.014366017876406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053830876720723</v>
+        <v>1.04096482855538</v>
       </c>
       <c r="J8">
-        <v>1.047452060608258</v>
+        <v>1.015479810733258</v>
       </c>
       <c r="K8">
-        <v>1.052503763439659</v>
+        <v>1.026410508661274</v>
       </c>
       <c r="L8">
-        <v>1.054278863125515</v>
+        <v>1.012896335171145</v>
       </c>
       <c r="M8">
-        <v>1.060000487002558</v>
+        <v>1.025354845979429</v>
       </c>
       <c r="N8">
-        <v>1.048939562678753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.00901227731045</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.02863895090629</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029767806285656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01643083090292</v>
+        <v>0.9844669326420941</v>
       </c>
       <c r="D9">
-        <v>1.034250572291578</v>
+        <v>1.009599497323221</v>
       </c>
       <c r="E9">
-        <v>1.034585005281087</v>
+        <v>0.9937700270726142</v>
       </c>
       <c r="F9">
-        <v>1.040238334905572</v>
+        <v>1.007053491639766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050818237053302</v>
+        <v>1.039532922372504</v>
       </c>
       <c r="J9">
-        <v>1.041416423921245</v>
+        <v>1.010580384684174</v>
       </c>
       <c r="K9">
-        <v>1.046811366709882</v>
+        <v>1.02253872591596</v>
       </c>
       <c r="L9">
-        <v>1.047140823279339</v>
+        <v>1.006964996455269</v>
       </c>
       <c r="M9">
-        <v>1.052710645128081</v>
+        <v>1.020033158125862</v>
       </c>
       <c r="N9">
-        <v>1.042895354695346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007323506254159</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024427108024518</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02702691374584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009353440578638</v>
+        <v>0.9781550038266551</v>
       </c>
       <c r="D10">
-        <v>1.028967662201185</v>
+        <v>1.005634783072586</v>
       </c>
       <c r="E10">
-        <v>1.028293696526336</v>
+        <v>0.9883604920296964</v>
       </c>
       <c r="F10">
-        <v>1.033852397221458</v>
+        <v>1.002334972346143</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048678754810008</v>
+        <v>1.038517757819361</v>
       </c>
       <c r="J10">
-        <v>1.037200808235017</v>
+        <v>1.007262966341657</v>
       </c>
       <c r="K10">
-        <v>1.042832878629685</v>
+        <v>1.019903039647306</v>
       </c>
       <c r="L10">
-        <v>1.042170223923932</v>
+        <v>1.002943130326075</v>
       </c>
       <c r="M10">
-        <v>1.047636201985857</v>
+        <v>1.016662195737545</v>
       </c>
       <c r="N10">
-        <v>1.038673752351306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006184275955607</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.021811650913349</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025180308897816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006209492796243</v>
+        <v>0.9762200611523907</v>
       </c>
       <c r="D11">
-        <v>1.026626557535062</v>
+        <v>1.004502136718657</v>
       </c>
       <c r="E11">
-        <v>1.025507017555167</v>
+        <v>0.9868233485628788</v>
       </c>
       <c r="F11">
-        <v>1.031024129029777</v>
+        <v>1.002845009001489</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047719261028484</v>
+        <v>1.038325635240545</v>
       </c>
       <c r="J11">
-        <v>1.035326211907038</v>
+        <v>1.006616702407983</v>
       </c>
       <c r="K11">
-        <v>1.041063218592785</v>
+        <v>1.019339645856441</v>
       </c>
       <c r="L11">
-        <v>1.039963423566197</v>
+        <v>1.001998110111004</v>
       </c>
       <c r="M11">
-        <v>1.045383768929036</v>
+        <v>1.017713471321808</v>
       </c>
       <c r="N11">
-        <v>1.036796493881522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006006212411957</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023087731509016</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02481525570401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00502914261237</v>
+        <v>0.9757928399324559</v>
       </c>
       <c r="D12">
-        <v>1.025748541827541</v>
+        <v>1.00429030153888</v>
       </c>
       <c r="E12">
-        <v>1.024462060995017</v>
+        <v>0.9865423324289885</v>
       </c>
       <c r="F12">
-        <v>1.029963628595393</v>
+        <v>1.003901604765187</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047357710113699</v>
+        <v>1.038344590820595</v>
       </c>
       <c r="J12">
-        <v>1.034622174681951</v>
+        <v>1.00665823716845</v>
       </c>
       <c r="K12">
-        <v>1.040398525134986</v>
+        <v>1.019335765158346</v>
       </c>
       <c r="L12">
-        <v>1.039135147765699</v>
+        <v>1.001931982996853</v>
       </c>
       <c r="M12">
-        <v>1.044538439227753</v>
+        <v>1.018954435988154</v>
       </c>
       <c r="N12">
-        <v>1.036091456842821</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006056544954132</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024400653417023</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024812511853741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005282909956133</v>
+        <v>0.9765041050416545</v>
       </c>
       <c r="D13">
-        <v>1.025937266740043</v>
+        <v>1.004783754670974</v>
       </c>
       <c r="E13">
-        <v>1.024686661768338</v>
+        <v>0.9872140699911689</v>
       </c>
       <c r="F13">
-        <v>1.030191567974501</v>
+        <v>1.005474027836258</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047435500203468</v>
+        <v>1.038536998904505</v>
       </c>
       <c r="J13">
-        <v>1.034773548420144</v>
+        <v>1.007240852876814</v>
       </c>
       <c r="K13">
-        <v>1.040541442505913</v>
+        <v>1.019776147808113</v>
       </c>
       <c r="L13">
-        <v>1.039313210063031</v>
+        <v>1.002545524523772</v>
       </c>
       <c r="M13">
-        <v>1.044720164404542</v>
+        <v>1.020453416013824</v>
       </c>
       <c r="N13">
-        <v>1.036243045549086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006290310617822</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.025866004299623</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025121358354023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006112184384401</v>
+        <v>0.9775083267458806</v>
       </c>
       <c r="D14">
-        <v>1.026554154614306</v>
+        <v>1.005443939718917</v>
       </c>
       <c r="E14">
-        <v>1.025420845077424</v>
+        <v>0.9881067594772383</v>
       </c>
       <c r="F14">
-        <v>1.030936673665177</v>
+        <v>1.006781244247582</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047689481311223</v>
+        <v>1.038748087738328</v>
       </c>
       <c r="J14">
-        <v>1.035268175649144</v>
+        <v>1.007884712012928</v>
       </c>
       <c r="K14">
-        <v>1.041008426882396</v>
+        <v>1.020280751550944</v>
       </c>
       <c r="L14">
-        <v>1.039895135199066</v>
+        <v>1.003273773595445</v>
       </c>
       <c r="M14">
-        <v>1.04531407302148</v>
+        <v>1.021593201998731</v>
       </c>
       <c r="N14">
-        <v>1.036738375205485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006534094943526</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026942076997353</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025479582568545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006621445772968</v>
+        <v>0.9780120945628912</v>
       </c>
       <c r="D15">
-        <v>1.026933111513846</v>
+        <v>1.005768068021295</v>
       </c>
       <c r="E15">
-        <v>1.025871878572595</v>
+        <v>0.9885436911645201</v>
       </c>
       <c r="F15">
-        <v>1.031394424000983</v>
+        <v>1.007261248716492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047845279110626</v>
+        <v>1.038841602223453</v>
       </c>
       <c r="J15">
-        <v>1.035571897284991</v>
+        <v>1.008172271914243</v>
       </c>
       <c r="K15">
-        <v>1.041295166132014</v>
+        <v>1.020510693008633</v>
       </c>
       <c r="L15">
-        <v>1.040252530732449</v>
+        <v>1.003611790151625</v>
       </c>
       <c r="M15">
-        <v>1.045678838098149</v>
+        <v>1.021976341486363</v>
       </c>
       <c r="N15">
-        <v>1.037042528160893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006638067224539</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027282782835161</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025648111399146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009560369299589</v>
+        <v>0.9805271409296401</v>
       </c>
       <c r="D16">
-        <v>1.029121873293704</v>
+        <v>1.007337598063295</v>
       </c>
       <c r="E16">
-        <v>1.028477282952065</v>
+        <v>0.9906803625987791</v>
       </c>
       <c r="F16">
-        <v>1.03403873054879</v>
+        <v>1.008993692632819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048741720957203</v>
+        <v>1.039242900691334</v>
       </c>
       <c r="J16">
-        <v>1.037324154085725</v>
+        <v>1.00945590297829</v>
       </c>
       <c r="K16">
-        <v>1.042949310004897</v>
+        <v>1.021539329497606</v>
       </c>
       <c r="L16">
-        <v>1.042315501526388</v>
+        <v>1.005182770446436</v>
       </c>
       <c r="M16">
-        <v>1.047784493711088</v>
+        <v>1.023166233509339</v>
       </c>
       <c r="N16">
-        <v>1.038797273367271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00707246668502</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028184191102997</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026378620123038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011382197398937</v>
+        <v>0.9819398137317935</v>
       </c>
       <c r="D17">
-        <v>1.030480224517924</v>
+        <v>1.00820296889648</v>
       </c>
       <c r="E17">
-        <v>1.030094528193249</v>
+        <v>0.9918621256047808</v>
       </c>
       <c r="F17">
-        <v>1.035680211200911</v>
+        <v>1.009643992418057</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049295052961017</v>
+        <v>1.039440014972419</v>
       </c>
       <c r="J17">
-        <v>1.038409893705665</v>
+        <v>1.010110156948413</v>
       </c>
       <c r="K17">
-        <v>1.043974128753989</v>
+        <v>1.022068682965607</v>
       </c>
       <c r="L17">
-        <v>1.043594694022348</v>
+        <v>1.006014361804284</v>
       </c>
       <c r="M17">
-        <v>1.04909028003031</v>
+        <v>1.023485014389435</v>
       </c>
       <c r="N17">
-        <v>1.039884554862007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007280173796557</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028305857976545</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026755523879093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012437222750218</v>
+        <v>0.9824985132642218</v>
       </c>
       <c r="D18">
-        <v>1.031267385729911</v>
+        <v>1.008511387512937</v>
       </c>
       <c r="E18">
-        <v>1.031031842767662</v>
+        <v>0.9922905286711895</v>
       </c>
       <c r="F18">
-        <v>1.036631602854514</v>
+        <v>1.009253542070365</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049614622901871</v>
+        <v>1.039467799197835</v>
       </c>
       <c r="J18">
-        <v>1.039038463260222</v>
+        <v>1.010239409740324</v>
       </c>
       <c r="K18">
-        <v>1.044567380227605</v>
+        <v>1.022184803032875</v>
       </c>
       <c r="L18">
-        <v>1.044335594253081</v>
+        <v>1.00624367794133</v>
       </c>
       <c r="M18">
-        <v>1.049846627817247</v>
+        <v>1.022914436377806</v>
       </c>
       <c r="N18">
-        <v>1.040514017057429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007295958115052</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027614362102213</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026825840744975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012795685496302</v>
+        <v>0.9822698429986439</v>
       </c>
       <c r="D19">
-        <v>1.031534926252987</v>
+        <v>1.00831885697214</v>
       </c>
       <c r="E19">
-        <v>1.031350439387654</v>
+        <v>0.9920221072463432</v>
       </c>
       <c r="F19">
-        <v>1.036954989487224</v>
+        <v>1.007818399500528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04972305407116</v>
+        <v>1.039347077628351</v>
       </c>
       <c r="J19">
-        <v>1.039251997824737</v>
+        <v>1.009881168284464</v>
       </c>
       <c r="K19">
-        <v>1.044768908107778</v>
+        <v>1.021931743089135</v>
       </c>
       <c r="L19">
-        <v>1.044587346080827</v>
+        <v>1.005914693838477</v>
       </c>
       <c r="M19">
-        <v>1.050103636084476</v>
+        <v>1.021439701329514</v>
       </c>
       <c r="N19">
-        <v>1.040727854865518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007138604807413</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026118172923312</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026653393530184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011187524618488</v>
+        <v>0.979819609600461</v>
       </c>
       <c r="D20">
-        <v>1.030335020808276</v>
+        <v>1.006696168225514</v>
       </c>
       <c r="E20">
-        <v>1.029921636709538</v>
+        <v>0.9897884849333387</v>
       </c>
       <c r="F20">
-        <v>1.035504725617233</v>
+        <v>1.003579505158669</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049236015796719</v>
+        <v>1.038800916445278</v>
       </c>
       <c r="J20">
-        <v>1.038293895106623</v>
+        <v>1.008151244263261</v>
       </c>
       <c r="K20">
-        <v>1.043864643857152</v>
+        <v>1.020622286707355</v>
       </c>
       <c r="L20">
-        <v>1.043457992553741</v>
+        <v>1.004013299930994</v>
       </c>
       <c r="M20">
-        <v>1.048950731959117</v>
+        <v>1.017559703952171</v>
       </c>
       <c r="N20">
-        <v>1.039768391531648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006492543107697</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022511183720685</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025731511634647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005868335302613</v>
+        <v>0.9749077364085112</v>
       </c>
       <c r="D21">
-        <v>1.026372732229815</v>
+        <v>1.003601756648617</v>
       </c>
       <c r="E21">
-        <v>1.025204922492134</v>
+        <v>0.9855686132699575</v>
       </c>
       <c r="F21">
-        <v>1.030717537383588</v>
+        <v>0.999539824766475</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047614833947891</v>
+        <v>1.03796709167457</v>
       </c>
       <c r="J21">
-        <v>1.035122736410839</v>
+        <v>1.00549335071044</v>
       </c>
       <c r="K21">
-        <v>1.040871117457104</v>
+        <v>1.01851521243113</v>
       </c>
       <c r="L21">
-        <v>1.039724012581422</v>
+        <v>1.000828649609937</v>
       </c>
       <c r="M21">
-        <v>1.045139424464478</v>
+        <v>1.014529920556547</v>
       </c>
       <c r="N21">
-        <v>1.036592729426779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005571422232221</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020071550389741</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024244967304864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002451014323262</v>
+        <v>0.9717965119870173</v>
       </c>
       <c r="D22">
-        <v>1.023832534946531</v>
+        <v>1.001644666873012</v>
       </c>
       <c r="E22">
-        <v>1.022182036629724</v>
+        <v>0.9829089603917293</v>
       </c>
       <c r="F22">
-        <v>1.027649785705684</v>
+        <v>0.9971172906986642</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046565625116492</v>
+        <v>1.037431887748151</v>
       </c>
       <c r="J22">
-        <v>1.033084005445914</v>
+        <v>1.003826508696292</v>
       </c>
       <c r="K22">
-        <v>1.038946201551239</v>
+        <v>1.017183612848279</v>
       </c>
       <c r="L22">
-        <v>1.037326509024831</v>
+        <v>0.9988267713584176</v>
       </c>
       <c r="M22">
-        <v>1.04269269911856</v>
+        <v>1.012746071747552</v>
       </c>
       <c r="N22">
-        <v>1.034551103230039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004994714284079</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018659710614023</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02328974281268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004269731976086</v>
+        <v>0.9734430528534174</v>
       </c>
       <c r="D23">
-        <v>1.025183913328527</v>
+        <v>1.002673797188079</v>
       </c>
       <c r="E23">
-        <v>1.023790121560339</v>
+        <v>0.984314576384295</v>
       </c>
       <c r="F23">
-        <v>1.029281708755142</v>
+        <v>0.998401550268609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047124729139181</v>
+        <v>1.037712157932109</v>
       </c>
       <c r="J23">
-        <v>1.034169148789441</v>
+        <v>1.004704937629189</v>
       </c>
       <c r="K23">
-        <v>1.039970798116418</v>
+        <v>1.017880882934785</v>
       </c>
       <c r="L23">
-        <v>1.038602326259931</v>
+        <v>0.9998831177798042</v>
       </c>
       <c r="M23">
-        <v>1.043994668131407</v>
+        <v>1.013691191985065</v>
       </c>
       <c r="N23">
-        <v>1.035637787601581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005297549351426</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019407733093115</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023772979938347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011275512359647</v>
+        <v>0.979801994224447</v>
       </c>
       <c r="D24">
-        <v>1.030400647978031</v>
+        <v>1.006668861106752</v>
       </c>
       <c r="E24">
-        <v>1.029999777428471</v>
+        <v>0.9897606506175486</v>
       </c>
       <c r="F24">
-        <v>1.035584038680452</v>
+        <v>1.00337682425398</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049262701961732</v>
+        <v>1.03877993299834</v>
       </c>
       <c r="J24">
-        <v>1.038346324454785</v>
+        <v>1.008100347729338</v>
       </c>
       <c r="K24">
-        <v>1.043914129277998</v>
+        <v>1.020579867535672</v>
       </c>
       <c r="L24">
-        <v>1.043519778201223</v>
+        <v>1.003969998865649</v>
       </c>
       <c r="M24">
-        <v>1.049013804061848</v>
+        <v>1.017344897453713</v>
       </c>
       <c r="N24">
-        <v>1.039820895335499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006469602519665</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022299477735304</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025673735389995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019108447694718</v>
+        <v>0.9869126658914347</v>
       </c>
       <c r="D25">
-        <v>1.036253819411554</v>
+        <v>1.011155026601574</v>
       </c>
       <c r="E25">
-        <v>1.036971916006933</v>
+        <v>0.9958805891292088</v>
       </c>
       <c r="F25">
-        <v>1.042661416354501</v>
+        <v>1.008980475792969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051619538237289</v>
+        <v>1.039929025222961</v>
       </c>
       <c r="J25">
-        <v>1.043009415637437</v>
+        <v>1.011888643330817</v>
       </c>
       <c r="K25">
-        <v>1.048314251880336</v>
+        <v>1.023582608452923</v>
       </c>
       <c r="L25">
-        <v>1.049022174735793</v>
+        <v>1.008543192021077</v>
       </c>
       <c r="M25">
-        <v>1.054631693580112</v>
+        <v>1.021440962872776</v>
       </c>
       <c r="N25">
-        <v>1.044490608642495</v>
+        <v>1.007776354337766</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.02554131577103</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.027793981041941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9923595434752649</v>
+        <v>0.9930633899745477</v>
       </c>
       <c r="D2">
-        <v>1.01458599626605</v>
+        <v>1.015069352565588</v>
       </c>
       <c r="E2">
-        <v>1.000587636924191</v>
+        <v>1.001286560515862</v>
       </c>
       <c r="F2">
-        <v>1.013312399544671</v>
+        <v>1.013617308579151</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040760011126747</v>
+        <v>1.040967936548499</v>
       </c>
       <c r="J2">
-        <v>1.014771205814034</v>
+        <v>1.015453571994645</v>
       </c>
       <c r="K2">
-        <v>1.025845797276026</v>
+        <v>1.026322664710807</v>
       </c>
       <c r="L2">
-        <v>1.012038791097331</v>
+        <v>1.012728000560169</v>
       </c>
       <c r="M2">
-        <v>1.024589335347645</v>
+        <v>1.024890137250397</v>
       </c>
       <c r="N2">
-        <v>1.008767050251944</v>
+        <v>1.011245763369387</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028033090111763</v>
+        <v>1.028271158821529</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029345310510678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029691386368284</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019138530007482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9962222076557042</v>
+        <v>0.9967762712242111</v>
       </c>
       <c r="D3">
-        <v>1.017035423482699</v>
+        <v>1.017335769904947</v>
       </c>
       <c r="E3">
-        <v>1.003939786135819</v>
+        <v>1.004490620410653</v>
       </c>
       <c r="F3">
-        <v>1.016395859578343</v>
+        <v>1.016635560779436</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041333347653599</v>
+        <v>1.041464417100933</v>
       </c>
       <c r="J3">
-        <v>1.016816391592848</v>
+        <v>1.017355205800355</v>
       </c>
       <c r="K3">
-        <v>1.027454875891583</v>
+        <v>1.027751539185656</v>
       </c>
       <c r="L3">
-        <v>1.014522503644163</v>
+        <v>1.01506636356034</v>
       </c>
       <c r="M3">
-        <v>1.026823163939125</v>
+        <v>1.027059920879076</v>
       </c>
       <c r="N3">
-        <v>1.009471020833835</v>
+        <v>1.011766157094144</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029801044690465</v>
+        <v>1.029988424745498</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030480399665695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030698773164879</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019421137927716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9986749083443611</v>
+        <v>0.9991351593181997</v>
       </c>
       <c r="D4">
-        <v>1.018593617443895</v>
+        <v>1.018778609242281</v>
       </c>
       <c r="E4">
-        <v>1.006073847927363</v>
+        <v>1.006531744317576</v>
       </c>
       <c r="F4">
-        <v>1.018361114502769</v>
+        <v>1.018560059954344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041686882942966</v>
+        <v>1.041769454866069</v>
       </c>
       <c r="J4">
-        <v>1.018112570946193</v>
+        <v>1.018561013710725</v>
       </c>
       <c r="K4">
-        <v>1.028472696039013</v>
+        <v>1.028655555208255</v>
       </c>
       <c r="L4">
-        <v>1.016099515554597</v>
+        <v>1.016551971010797</v>
       </c>
       <c r="M4">
-        <v>1.02824287480401</v>
+        <v>1.028439525510652</v>
       </c>
       <c r="N4">
-        <v>1.009916930619894</v>
+        <v>1.012096004957096</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.030924666750507</v>
+        <v>1.031080304686544</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031201010246207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031338992558362</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019597371800456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996981211220817</v>
+        <v>1.000119517287588</v>
       </c>
       <c r="D5">
-        <v>1.019246438884062</v>
+        <v>1.01938353980404</v>
       </c>
       <c r="E5">
-        <v>1.006965793792086</v>
+        <v>1.007385156352367</v>
       </c>
       <c r="F5">
-        <v>1.019181616736561</v>
+        <v>1.019363702088062</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041833202824362</v>
+        <v>1.04189562036265</v>
       </c>
       <c r="J5">
-        <v>1.018653999456867</v>
+        <v>1.019064908083015</v>
       </c>
       <c r="K5">
-        <v>1.028899076320175</v>
+        <v>1.02903463852678</v>
       </c>
       <c r="L5">
-        <v>1.01675835887436</v>
+        <v>1.0171728736559</v>
       </c>
       <c r="M5">
-        <v>1.028834981863194</v>
+        <v>1.029015023422255</v>
       </c>
       <c r="N5">
-        <v>1.010103418088452</v>
+        <v>1.012234039194791</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031393285966128</v>
+        <v>1.031535778604718</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031509757622269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.031615005336309</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019671066953028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9998728719872657</v>
+        <v>1.000287631037148</v>
       </c>
       <c r="D6">
-        <v>1.019360564839691</v>
+        <v>1.019489538251875</v>
       </c>
       <c r="E6">
-        <v>1.007118643193819</v>
+        <v>1.007531420670491</v>
       </c>
       <c r="F6">
-        <v>1.01932052504565</v>
+        <v>1.019499731795856</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04185974667519</v>
+        <v>1.041918733166379</v>
       </c>
       <c r="J6">
-        <v>1.018748026734813</v>
+        <v>1.019152516640929</v>
       </c>
       <c r="K6">
-        <v>1.028975172148652</v>
+        <v>1.029102704656655</v>
       </c>
       <c r="L6">
-        <v>1.01687209238659</v>
+        <v>1.017280120486258</v>
       </c>
       <c r="M6">
-        <v>1.028935579774583</v>
+        <v>1.02911278433645</v>
       </c>
       <c r="N6">
-        <v>1.010136152582462</v>
+        <v>1.012258313391429</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031472903486391</v>
+        <v>1.031613150787518</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03157241008935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031672847360704</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019684773415714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9986982430941382</v>
+        <v>0.999165784692248</v>
       </c>
       <c r="D7">
-        <v>1.018615448481101</v>
+        <v>1.018805189104014</v>
       </c>
       <c r="E7">
-        <v>1.006095368939444</v>
+        <v>1.006560520651466</v>
       </c>
       <c r="F7">
-        <v>1.018376263608128</v>
+        <v>1.018578359489111</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041694808937333</v>
+        <v>1.041779491964439</v>
       </c>
       <c r="J7">
-        <v>1.018129203757865</v>
+        <v>1.018584755368093</v>
       </c>
       <c r="K7">
-        <v>1.028491347524681</v>
+        <v>1.02867890163279</v>
       </c>
       <c r="L7">
-        <v>1.016117803766743</v>
+        <v>1.016577430530806</v>
       </c>
       <c r="M7">
-        <v>1.02825492038132</v>
+        <v>1.028454686052817</v>
       </c>
       <c r="N7">
-        <v>1.009923621012714</v>
+        <v>1.012129281540382</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.030934200146139</v>
+        <v>1.031092303398615</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031234544121903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031377841905692</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019603860763794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936868797570574</v>
+        <v>0.9943643711964971</v>
       </c>
       <c r="D8">
-        <v>1.015435641159461</v>
+        <v>1.015873920459255</v>
       </c>
       <c r="E8">
-        <v>1.001739880201281</v>
+        <v>1.002412906598008</v>
       </c>
       <c r="F8">
-        <v>1.014366017876406</v>
+        <v>1.014659376259832</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04096482855538</v>
+        <v>1.041154261151731</v>
       </c>
       <c r="J8">
-        <v>1.015479810733258</v>
+        <v>1.016137323735056</v>
       </c>
       <c r="K8">
-        <v>1.026410508661274</v>
+        <v>1.026843078222554</v>
       </c>
       <c r="L8">
-        <v>1.012896335171145</v>
+        <v>1.01356029243193</v>
       </c>
       <c r="M8">
-        <v>1.025354845979429</v>
+        <v>1.025644371813262</v>
       </c>
       <c r="N8">
-        <v>1.00901227731045</v>
+        <v>1.011513047340642</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02863895090629</v>
+        <v>1.028868095007319</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029767806285656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030084820532546</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019245417645766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9844669326420941</v>
+        <v>0.9855142366498996</v>
       </c>
       <c r="D9">
-        <v>1.009599497323221</v>
+        <v>1.010482722274194</v>
       </c>
       <c r="E9">
-        <v>0.9937700270726142</v>
+        <v>0.9948073415361648</v>
       </c>
       <c r="F9">
-        <v>1.007053491639766</v>
+        <v>1.007508417137581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039532922372504</v>
+        <v>1.039908989429098</v>
       </c>
       <c r="J9">
-        <v>1.010580384684174</v>
+        <v>1.011589103075275</v>
       </c>
       <c r="K9">
-        <v>1.02253872591596</v>
+        <v>1.02340798366475</v>
       </c>
       <c r="L9">
-        <v>1.006964996455269</v>
+        <v>1.00798523158185</v>
       </c>
       <c r="M9">
-        <v>1.020033158125862</v>
+        <v>1.020480838882156</v>
       </c>
       <c r="N9">
-        <v>1.007323506254159</v>
+        <v>1.010276589860576</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024427108024518</v>
+        <v>1.024781425372978</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02702691374584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027652435060907</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018550388930963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9781550038266551</v>
+        <v>0.9794984980489368</v>
       </c>
       <c r="D10">
-        <v>1.005634783072586</v>
+        <v>1.006851464795654</v>
       </c>
       <c r="E10">
-        <v>0.9883604920296964</v>
+        <v>0.9896881920322839</v>
       </c>
       <c r="F10">
-        <v>1.002334972346143</v>
+        <v>1.002919207810279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038517757819361</v>
+        <v>1.039033807695485</v>
       </c>
       <c r="J10">
-        <v>1.007262966341657</v>
+        <v>1.008549816374106</v>
       </c>
       <c r="K10">
-        <v>1.019903039647306</v>
+        <v>1.021098106099987</v>
       </c>
       <c r="L10">
-        <v>1.002943130326075</v>
+        <v>1.004246159239444</v>
       </c>
       <c r="M10">
-        <v>1.016662195737545</v>
+        <v>1.017235954336502</v>
       </c>
       <c r="N10">
-        <v>1.006184275955607</v>
+        <v>1.00956548144994</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021811650913349</v>
+        <v>1.022265724936211</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025180308897816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026037885955556</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018078140059964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9762200611523907</v>
+        <v>0.9776924758385873</v>
       </c>
       <c r="D11">
-        <v>1.004502136718657</v>
+        <v>1.005839974006205</v>
       </c>
       <c r="E11">
-        <v>0.9868233485628788</v>
+        <v>0.9882770107504694</v>
       </c>
       <c r="F11">
-        <v>1.002845009001489</v>
+        <v>1.003480364107613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038325635240545</v>
+        <v>1.038891372195307</v>
       </c>
       <c r="J11">
-        <v>1.006616702407983</v>
+        <v>1.008023648864214</v>
       </c>
       <c r="K11">
-        <v>1.019339645856441</v>
+        <v>1.020652590977177</v>
       </c>
       <c r="L11">
-        <v>1.001998110111004</v>
+        <v>1.003423444278759</v>
       </c>
       <c r="M11">
-        <v>1.017713471321808</v>
+        <v>1.018336942974981</v>
       </c>
       <c r="N11">
-        <v>1.006006212411957</v>
+        <v>1.009684790614942</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023087731509016</v>
+        <v>1.023580890697148</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02481525570401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025759384844714</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018031279610991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9757928399324559</v>
+        <v>0.9772947677344569</v>
       </c>
       <c r="D12">
-        <v>1.00429030153888</v>
+        <v>1.005651017371507</v>
       </c>
       <c r="E12">
-        <v>0.9865423324289885</v>
+        <v>0.9880245968481675</v>
       </c>
       <c r="F12">
-        <v>1.003901604765187</v>
+        <v>1.004546007015535</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038344590820595</v>
+        <v>1.038918476252684</v>
       </c>
       <c r="J12">
-        <v>1.00665823716845</v>
+        <v>1.008092138018835</v>
       </c>
       <c r="K12">
-        <v>1.019335765158346</v>
+        <v>1.02067074775455</v>
       </c>
       <c r="L12">
-        <v>1.001931982996853</v>
+        <v>1.003384880103326</v>
       </c>
       <c r="M12">
-        <v>1.018954435988154</v>
+        <v>1.01958662789647</v>
       </c>
       <c r="N12">
-        <v>1.006056544954132</v>
+        <v>1.009832236407817</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024400653417023</v>
+        <v>1.024900535781184</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024812511853741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02577222229965</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018066322337325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9765041050416545</v>
+        <v>0.9779488384327292</v>
       </c>
       <c r="D13">
-        <v>1.004783754670974</v>
+        <v>1.006084423827677</v>
       </c>
       <c r="E13">
-        <v>0.9872140699911689</v>
+        <v>0.9886400484266747</v>
       </c>
       <c r="F13">
-        <v>1.005474027836258</v>
+        <v>1.006091064705576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038536998904505</v>
+        <v>1.039083813549514</v>
       </c>
       <c r="J13">
-        <v>1.007240852876814</v>
+        <v>1.008620521202208</v>
       </c>
       <c r="K13">
-        <v>1.019776147808113</v>
+        <v>1.021052331373761</v>
       </c>
       <c r="L13">
-        <v>1.002545524523772</v>
+        <v>1.003943394293535</v>
       </c>
       <c r="M13">
-        <v>1.020453416013824</v>
+        <v>1.021058847446774</v>
       </c>
       <c r="N13">
-        <v>1.006290310617822</v>
+        <v>1.009977698104011</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025866004299623</v>
+        <v>1.02634460381224</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025121358354023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026039246839157</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018169633404788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9775083267458806</v>
+        <v>0.9788753318834483</v>
       </c>
       <c r="D14">
-        <v>1.005443939718917</v>
+        <v>1.006666550078896</v>
       </c>
       <c r="E14">
-        <v>0.9881067594772383</v>
+        <v>0.9894564113042587</v>
       </c>
       <c r="F14">
-        <v>1.006781244247582</v>
+        <v>1.0073635705043</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038748087738328</v>
+        <v>1.039260759753093</v>
       </c>
       <c r="J14">
-        <v>1.007884712012928</v>
+        <v>1.00919106818636</v>
       </c>
       <c r="K14">
-        <v>1.020280751550944</v>
+        <v>1.021480636068513</v>
       </c>
       <c r="L14">
-        <v>1.003273773595445</v>
+        <v>1.004597175571885</v>
       </c>
       <c r="M14">
-        <v>1.021593201998731</v>
+        <v>1.022164732492898</v>
       </c>
       <c r="N14">
-        <v>1.006534094943526</v>
+        <v>1.010077852388593</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026942076997353</v>
+        <v>1.027393815630808</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025479582568545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02634365471657</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018272090851071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9780120945628912</v>
+        <v>0.9793417917859615</v>
       </c>
       <c r="D15">
-        <v>1.005768068021295</v>
+        <v>1.006953763354546</v>
       </c>
       <c r="E15">
-        <v>0.9885436911645201</v>
+        <v>0.9898567337902254</v>
       </c>
       <c r="F15">
-        <v>1.007261248716492</v>
+        <v>1.007827378422063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038841602223453</v>
+        <v>1.03933840854621</v>
       </c>
       <c r="J15">
-        <v>1.008172271914243</v>
+        <v>1.009443501764941</v>
       </c>
       <c r="K15">
-        <v>1.020510693008633</v>
+        <v>1.021674517036431</v>
       </c>
       <c r="L15">
-        <v>1.003611790151625</v>
+        <v>1.004899498978602</v>
       </c>
       <c r="M15">
-        <v>1.021976341486363</v>
+        <v>1.022532060317425</v>
       </c>
       <c r="N15">
-        <v>1.006638067224539</v>
+        <v>1.010108436283084</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027282782835161</v>
+        <v>1.027722012247107</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025648111399146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026487253069229</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018314945027692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,105 +1307,123 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9805271409296401</v>
+        <v>0.9816882196530393</v>
       </c>
       <c r="D16">
-        <v>1.007337598063295</v>
+        <v>1.008355780551283</v>
       </c>
       <c r="E16">
-        <v>0.9906803625987791</v>
+        <v>0.9918279944563591</v>
       </c>
       <c r="F16">
-        <v>1.008993692632819</v>
+        <v>1.009488196978791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039242900691334</v>
+        <v>1.039669240106639</v>
       </c>
       <c r="J16">
-        <v>1.00945590297829</v>
+        <v>1.010568508406226</v>
       </c>
       <c r="K16">
-        <v>1.021539329497606</v>
+        <v>1.022539550637736</v>
       </c>
       <c r="L16">
-        <v>1.005182770446436</v>
+        <v>1.006309264590859</v>
       </c>
       <c r="M16">
-        <v>1.023166233509339</v>
+        <v>1.023652045716599</v>
       </c>
       <c r="N16">
-        <v>1.00707246668502</v>
+        <v>1.010202470273588</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028184191102997</v>
+        <v>1.028568178808581</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026378620123038</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027102380896592</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018486772682235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9819398137317935</v>
+        <v>0.9830210391268364</v>
       </c>
       <c r="D17">
-        <v>1.00820296889648</v>
+        <v>1.009139475491957</v>
       </c>
       <c r="E17">
-        <v>0.9918621256047808</v>
+        <v>0.9929314425328433</v>
       </c>
       <c r="F17">
-        <v>1.009643992418057</v>
+        <v>1.010105223773587</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039440014972419</v>
+        <v>1.039832662178642</v>
       </c>
       <c r="J17">
-        <v>1.010110156948413</v>
+        <v>1.011147701391238</v>
       </c>
       <c r="K17">
-        <v>1.022068682965607</v>
+        <v>1.022989132049713</v>
       </c>
       <c r="L17">
-        <v>1.006014361804284</v>
+        <v>1.007064554777505</v>
       </c>
       <c r="M17">
-        <v>1.023485014389435</v>
+        <v>1.02393836172192</v>
       </c>
       <c r="N17">
-        <v>1.007280173796557</v>
+        <v>1.01025327419657</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028305857976545</v>
+        <v>1.028664221546429</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026755523879093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027423126913937</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018567066639627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9824985132642218</v>
+        <v>0.9835585853325198</v>
       </c>
       <c r="D18">
-        <v>1.008511387512937</v>
+        <v>1.009426153817874</v>
       </c>
       <c r="E18">
-        <v>0.9922905286711895</v>
+        <v>0.993339257351882</v>
       </c>
       <c r="F18">
-        <v>1.009253542070365</v>
+        <v>1.009707276699399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039467799197835</v>
+        <v>1.039852487078141</v>
       </c>
       <c r="J18">
-        <v>1.010239409740324</v>
+        <v>1.011257449504934</v>
       </c>
       <c r="K18">
-        <v>1.022184803032875</v>
+        <v>1.023084139321309</v>
       </c>
       <c r="L18">
-        <v>1.00624367794133</v>
+        <v>1.007273962983077</v>
       </c>
       <c r="M18">
-        <v>1.022914436377806</v>
+        <v>1.023360527545653</v>
       </c>
       <c r="N18">
-        <v>1.007295958115052</v>
+        <v>1.010220893645472</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027614362102213</v>
+        <v>1.027967064758676</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026825840744975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027477384192433</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018565257796292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9822698429986439</v>
+        <v>0.9833555862854629</v>
       </c>
       <c r="D19">
-        <v>1.00831885697214</v>
+        <v>1.009262229129967</v>
       </c>
       <c r="E19">
-        <v>0.9920221072463432</v>
+        <v>0.9930963268644815</v>
       </c>
       <c r="F19">
-        <v>1.007818399500528</v>
+        <v>1.008285579892923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039347077628351</v>
+        <v>1.039745240576335</v>
       </c>
       <c r="J19">
-        <v>1.009881168284464</v>
+        <v>1.010924087758125</v>
       </c>
       <c r="K19">
-        <v>1.021931743089135</v>
+        <v>1.02285928071911</v>
       </c>
       <c r="L19">
-        <v>1.005914693838477</v>
+        <v>1.006970110629382</v>
       </c>
       <c r="M19">
-        <v>1.021439701329514</v>
+        <v>1.021899025264233</v>
       </c>
       <c r="N19">
-        <v>1.007138604807413</v>
+        <v>1.010092996015115</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026118172923312</v>
+        <v>1.026481459960205</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026653393530184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027325501946391</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018490945191222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979819609600461</v>
+        <v>0.9810605052576485</v>
       </c>
       <c r="D20">
-        <v>1.006696168225514</v>
+        <v>1.00780774694321</v>
       </c>
       <c r="E20">
-        <v>0.9897884849333387</v>
+        <v>0.9910155227821158</v>
       </c>
       <c r="F20">
-        <v>1.003579505158669</v>
+        <v>1.004118946884666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038800916445278</v>
+        <v>1.039272249352818</v>
       </c>
       <c r="J20">
-        <v>1.008151244263261</v>
+        <v>1.00934155369032</v>
       </c>
       <c r="K20">
-        <v>1.020622286707355</v>
+        <v>1.021714681965774</v>
       </c>
       <c r="L20">
-        <v>1.004013299930994</v>
+        <v>1.005218214774166</v>
       </c>
       <c r="M20">
-        <v>1.017559703952171</v>
+        <v>1.018089754188515</v>
       </c>
       <c r="N20">
-        <v>1.006492543107697</v>
+        <v>1.009684688647565</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022511183720685</v>
+        <v>1.022930672008909</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025731511634647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026520579680922</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018207080277127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9749077364085112</v>
+        <v>0.9765020168901505</v>
       </c>
       <c r="D21">
-        <v>1.003601756648617</v>
+        <v>1.005062433095146</v>
       </c>
       <c r="E21">
-        <v>0.9855686132699575</v>
+        <v>0.9871423235961162</v>
       </c>
       <c r="F21">
-        <v>0.999539824766475</v>
+        <v>1.000234573504593</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.03796709167457</v>
+        <v>1.038587661915656</v>
       </c>
       <c r="J21">
-        <v>1.00549335071044</v>
+        <v>1.007016124955071</v>
       </c>
       <c r="K21">
-        <v>1.01851521243113</v>
+        <v>1.019948526686618</v>
       </c>
       <c r="L21">
-        <v>1.000828649609937</v>
+        <v>1.002371452807054</v>
       </c>
       <c r="M21">
-        <v>1.014529920556547</v>
+        <v>1.015211503181646</v>
       </c>
       <c r="N21">
-        <v>1.005571422232221</v>
+        <v>1.009465797309691</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020071550389741</v>
+        <v>1.020610992998141</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024244967304864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025275419293666</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017840802691646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9717965119870173</v>
+        <v>0.9736158427826817</v>
       </c>
       <c r="D22">
-        <v>1.001644666873012</v>
+        <v>1.003327600835108</v>
       </c>
       <c r="E22">
-        <v>0.9829089603917293</v>
+        <v>0.9847027208095722</v>
       </c>
       <c r="F22">
-        <v>0.9971172906986642</v>
+        <v>0.997910920241064</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037431887748151</v>
+        <v>1.038147574398916</v>
       </c>
       <c r="J22">
-        <v>1.003826508696292</v>
+        <v>1.005559386710582</v>
       </c>
       <c r="K22">
-        <v>1.017183612848279</v>
+        <v>1.018833424275725</v>
       </c>
       <c r="L22">
-        <v>0.9988267713584176</v>
+        <v>1.000583435287841</v>
       </c>
       <c r="M22">
-        <v>1.012746071747552</v>
+        <v>1.013523876119965</v>
       </c>
       <c r="N22">
-        <v>1.004994714284079</v>
+        <v>1.009326200920196</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018659710614023</v>
+        <v>1.019275309761776</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02328974281268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02447198183218</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017608421566019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9734430528534174</v>
+        <v>0.9751290801232838</v>
       </c>
       <c r="D23">
-        <v>1.002673797188079</v>
+        <v>1.004228582949843</v>
       </c>
       <c r="E23">
-        <v>0.984314576384295</v>
+        <v>0.9859779457971352</v>
       </c>
       <c r="F23">
-        <v>0.998401550268609</v>
+        <v>0.9991366315753832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037712157932109</v>
+        <v>1.0383728196895</v>
       </c>
       <c r="J23">
-        <v>1.004704937629189</v>
+        <v>1.006313243970363</v>
       </c>
       <c r="K23">
-        <v>1.017880882934785</v>
+        <v>1.019405852510902</v>
       </c>
       <c r="L23">
-        <v>0.9998831177798042</v>
+        <v>1.001513009021183</v>
       </c>
       <c r="M23">
-        <v>1.013691191985065</v>
+        <v>1.014412002824987</v>
       </c>
       <c r="N23">
-        <v>1.005297549351426</v>
+        <v>1.009354313485635</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019407733093115</v>
+        <v>1.019978223658048</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023772979938347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024866006226041</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.017725820011746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.979801994224447</v>
+        <v>0.9810452503206982</v>
       </c>
       <c r="D24">
-        <v>1.006668861106752</v>
+        <v>1.007783100940817</v>
       </c>
       <c r="E24">
-        <v>0.9897606506175486</v>
+        <v>0.9909900515879638</v>
       </c>
       <c r="F24">
-        <v>1.00337682425398</v>
+        <v>1.003917720181513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.03877993299834</v>
+        <v>1.039252633199597</v>
       </c>
       <c r="J24">
-        <v>1.008100347729338</v>
+        <v>1.009292990536944</v>
       </c>
       <c r="K24">
-        <v>1.020579867535672</v>
+        <v>1.021674901446785</v>
       </c>
       <c r="L24">
-        <v>1.003969998865649</v>
+        <v>1.005177261339731</v>
       </c>
       <c r="M24">
-        <v>1.017344897453713</v>
+        <v>1.017876383803049</v>
       </c>
       <c r="N24">
-        <v>1.006469602519665</v>
+        <v>1.009663340805113</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022299477735304</v>
+        <v>1.022720124398861</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025673735389995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02646200483071</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018193078115239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869126658914347</v>
+        <v>0.9878501035740743</v>
       </c>
       <c r="D25">
-        <v>1.011155026601574</v>
+        <v>1.011912214892929</v>
       </c>
       <c r="E25">
-        <v>0.9958805891292088</v>
+        <v>0.9968098406118717</v>
       </c>
       <c r="F25">
-        <v>1.008980475792969</v>
+        <v>1.009387341130156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039929025222961</v>
+        <v>1.040252012735356</v>
       </c>
       <c r="J25">
-        <v>1.011888643330817</v>
+        <v>1.012793394569414</v>
       </c>
       <c r="K25">
-        <v>1.023582608452923</v>
+        <v>1.024328381265446</v>
       </c>
       <c r="L25">
-        <v>1.008543192021077</v>
+        <v>1.009457882386291</v>
       </c>
       <c r="M25">
-        <v>1.021440962872776</v>
+        <v>1.021841657799329</v>
       </c>
       <c r="N25">
-        <v>1.007776354337766</v>
+        <v>1.010574774238072</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.02554131577103</v>
+        <v>1.025858445631059</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027793981041941</v>
+        <v>1.028334982441946</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018740314251546</v>
       </c>
     </row>
   </sheetData>
